--- a/testaktivitet.xlsx
+++ b/testaktivitet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andran0803\Desktop\activitySorter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A04EECE-C292-4DB5-85FB-07C7F9ACC88A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF5704A3-5966-4BED-8024-31CF98138E4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1632" uniqueCount="325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1632" uniqueCount="324">
   <si>
     <t>Fullt navn</t>
   </si>
@@ -52,9 +52,6 @@
     <t>Klasse</t>
   </si>
   <si>
-    <t>Mattelærer</t>
-  </si>
-  <si>
     <t>Bucyana, David</t>
   </si>
   <si>
@@ -1015,10 +1012,10 @@
     <t>Dette har jeg litt lyst til</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>Bielikov, Sievastian</t>
+  </si>
+  <si>
+    <t>Aktivitet</t>
   </si>
 </sst>
 </file>
@@ -1054,9 +1051,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1083,7 +1079,7 @@
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{B54A823D-7219-4B0A-9B3D-D5BFC25C5D11}" name="Fullt navn"/>
     <tableColumn id="2" xr3:uid="{7713A9B8-8400-4DB0-8C62-567ECAF54832}" name="Klasse"/>
-    <tableColumn id="3" xr3:uid="{C7180E97-6CA5-4185-82AC-0610DC570D9D}" name="Mattelærer"/>
+    <tableColumn id="3" xr3:uid="{C7180E97-6CA5-4185-82AC-0610DC570D9D}" name="Aktivitet"/>
     <tableColumn id="4" xr3:uid="{16F54025-3021-4E98-8CC0-CF8B6C4248C2}" name="Prioritet"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1379,8 +1375,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D408"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A388" workbookViewId="0">
-      <selection activeCell="D404" sqref="D404"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1399,63 +1395,63 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>323</v>
       </c>
       <c r="D1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D3" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D4" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
         <v>321</v>
@@ -1463,83 +1459,83 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
         <v>7</v>
       </c>
-      <c r="C6" t="s">
-        <v>8</v>
-      </c>
       <c r="D6" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D7" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D8" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B9" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D9" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C10" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" t="s">
         <v>7</v>
-      </c>
-      <c r="C11" t="s">
-        <v>8</v>
       </c>
       <c r="D11" t="s">
         <v>321</v>
@@ -1547,83 +1543,83 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D12" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D13" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D14" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B15" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C15" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D15" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B17" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C17" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D17" t="s">
         <v>321</v>
@@ -1631,13 +1627,13 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B18" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C18" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D18" t="s">
         <v>321</v>
@@ -1645,167 +1641,167 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B19" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C19" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D19" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C20" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C21" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B22" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C22" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" t="s">
         <v>10</v>
       </c>
-      <c r="C23" t="s">
-        <v>11</v>
-      </c>
       <c r="D23" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B24" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C24" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D24" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B25" t="s">
+        <v>39</v>
+      </c>
+      <c r="C25" t="s">
         <v>40</v>
       </c>
-      <c r="C25" t="s">
-        <v>41</v>
-      </c>
       <c r="D25" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
+        <v>5</v>
+      </c>
+      <c r="B26" t="s">
         <v>6</v>
       </c>
-      <c r="B26" t="s">
+      <c r="C26" t="s">
         <v>7</v>
       </c>
-      <c r="C26" t="s">
-        <v>8</v>
-      </c>
       <c r="D26" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B27" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C27" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D27" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B28" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C28" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D28" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B29" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C29" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D29" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B30" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C30" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D30" t="s">
         <v>321</v>
@@ -1813,83 +1809,83 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B31" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C31" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D31" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B32" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C32" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D32" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B33" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C33" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D33" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B34" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C34" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D34" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B35" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C35" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D35" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B36" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C36" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D36" t="s">
         <v>321</v>
@@ -1897,13 +1893,13 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B37" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C37" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D37" t="s">
         <v>321</v>
@@ -1911,13 +1907,13 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B38" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C38" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D38" t="s">
         <v>321</v>
@@ -1925,97 +1921,97 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B39" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C39" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D39" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B40" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C40" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D40" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B41" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C41" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D41" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B42" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C42" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D42" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B43" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C43" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D43" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B44" t="s">
+        <v>39</v>
+      </c>
+      <c r="C44" t="s">
         <v>40</v>
       </c>
-      <c r="C44" t="s">
-        <v>41</v>
-      </c>
       <c r="D44" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B45" t="s">
+        <v>6</v>
+      </c>
+      <c r="C45" t="s">
         <v>7</v>
-      </c>
-      <c r="C45" t="s">
-        <v>8</v>
       </c>
       <c r="D45" t="s">
         <v>321</v>
@@ -2023,83 +2019,83 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B46" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C46" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D46" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B47" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C47" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D47" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B48" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C48" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D48" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B49" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C49" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D49" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B50" t="s">
+        <v>6</v>
+      </c>
+      <c r="C50" t="s">
         <v>7</v>
       </c>
-      <c r="C50" t="s">
-        <v>8</v>
-      </c>
       <c r="D50" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C51" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D51" t="s">
         <v>321</v>
@@ -2107,97 +2103,97 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B52" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C52" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D52" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B53" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C53" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D53" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B54" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C54" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D54" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B55" t="s">
+        <v>6</v>
+      </c>
+      <c r="C55" t="s">
         <v>7</v>
       </c>
-      <c r="C55" t="s">
-        <v>8</v>
-      </c>
       <c r="D55" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B56" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C56" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D56" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B57" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C57" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D57" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B58" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C58" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D58" t="s">
         <v>321</v>
@@ -2205,69 +2201,69 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B59" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C59" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D59" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B60" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C60" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D60" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B61" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C61" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D61" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B62" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C62" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D62" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B63" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C63" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D63" t="s">
         <v>321</v>
@@ -2275,13 +2271,13 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B64" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C64" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D64" t="s">
         <v>321</v>
@@ -2289,97 +2285,97 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B65" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C65" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D65" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B66" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C66" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D66" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B67" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C67" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D67" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B68" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C68" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D68" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B69" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C69" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D69" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B70" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C70" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D70" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B71" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C71" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D71" t="s">
         <v>321</v>
@@ -2387,349 +2383,349 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
+        <v>177</v>
+      </c>
+      <c r="B72" t="s">
         <v>178</v>
       </c>
-      <c r="B72" t="s">
-        <v>179</v>
-      </c>
       <c r="C72" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D72" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B73" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C73" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D73" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B74" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C74" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D74" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B75" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C75" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D75" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B76" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C76" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D76" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
+        <v>14</v>
+      </c>
+      <c r="B77" t="s">
         <v>15</v>
       </c>
-      <c r="B77" t="s">
-        <v>16</v>
-      </c>
       <c r="C77" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D77" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B78" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C78" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D78" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B79" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C79" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D79" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B80" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C80" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D80" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B81" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C81" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D81" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B82" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C82" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D82" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B83" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C83" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D83" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B84" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C84" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D84" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B85" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C85" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D85" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B86" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C86" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D86" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B87" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C87" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D87" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B88" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C88" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D88" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B89" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C89" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D89" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
+        <v>2</v>
+      </c>
+      <c r="B90" t="s">
         <v>3</v>
       </c>
-      <c r="B90" t="s">
-        <v>4</v>
-      </c>
       <c r="C90" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D90" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B91" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C91" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D91" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B92" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C92" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D92" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B93" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C93" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D93" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B94" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C94" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D94" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B95" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C95" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D95" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B96" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C96" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D96" t="s">
         <v>321</v>
@@ -2737,125 +2733,125 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
+        <v>8</v>
+      </c>
+      <c r="B97" t="s">
         <v>9</v>
       </c>
-      <c r="B97" t="s">
-        <v>10</v>
-      </c>
       <c r="C97" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D97" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B98" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C98" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D98" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B99" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C99" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D99" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B100" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C100" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D100" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B101" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C101" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D101" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B102" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C102" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D102" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B103" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C103" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D103" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B104" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C104" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D104" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B105" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C105" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D105" t="s">
         <v>321</v>
@@ -2863,167 +2859,167 @@
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B106" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C106" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D106" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B107" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C107" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D107" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B108" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C108" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D108" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B109" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C109" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D109" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B110" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C110" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D110" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B111" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C111" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D111" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B112" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C112" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D112" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B113" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C113" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D113" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B114" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C114" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D114" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B115" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C115" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D115" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B116" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C116" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D116" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B117" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C117" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D117" t="s">
         <v>321</v>
@@ -3031,111 +3027,111 @@
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B118" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C118" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D118" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B119" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C119" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D119" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B120" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C120" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D120" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B121" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C121" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D121" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B122" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C122" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D122" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B123" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C123" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D123" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B124" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C124" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D124" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B125" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C125" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D125" t="s">
         <v>321</v>
@@ -3143,69 +3139,69 @@
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B126" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C126" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D126" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B127" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C127" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D127" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B128" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C128" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D128" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B129" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C129" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D129" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B130" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C130" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D130" t="s">
         <v>321</v>
@@ -3213,153 +3209,153 @@
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B131" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C131" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D131" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B132" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C132" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D132" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B133" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C133" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D133" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B134" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C134" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D134" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B135" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C135" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D135" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B136" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C136" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D136" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B137" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C137" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D137" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B138" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C138" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D138" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B139" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C139" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D139" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B140" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C140" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D140" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B141" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C141" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D141" t="s">
         <v>321</v>
@@ -3367,83 +3363,83 @@
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B142" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C142" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D142" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B143" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C143" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D143" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B144" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C144" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D144" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B145" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C145" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D145" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B146" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C146" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D146" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B147" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C147" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D147" t="s">
         <v>321</v>
@@ -3451,69 +3447,69 @@
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B148" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C148" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D148" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B149" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C149" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D149" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B150" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C150" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D150" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B151" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C151" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D151" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B152" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C152" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D152" t="s">
         <v>321</v>
@@ -3521,27 +3517,27 @@
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B153" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C153" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D153" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B154" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C154" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D154" t="s">
         <v>321</v>
@@ -3549,55 +3545,55 @@
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B155" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C155" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D155" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B156" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C156" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D156" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B157" t="s">
+        <v>39</v>
+      </c>
+      <c r="C157" t="s">
         <v>40</v>
       </c>
-      <c r="C157" t="s">
-        <v>41</v>
-      </c>
       <c r="D157" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B158" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C158" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D158" t="s">
         <v>321</v>
@@ -3605,97 +3601,97 @@
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B159" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C159" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D159" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B160" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C160" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D160" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B161" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C161" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D161" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B162" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C162" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D162" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B163" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C163" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D163" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B164" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C164" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D164" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B165" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C165" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D165" t="s">
         <v>321</v>
@@ -3703,27 +3699,27 @@
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B166" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C166" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D166" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B167" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C167" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D167" t="s">
         <v>321</v>
@@ -3731,545 +3727,545 @@
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B168" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C168" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D168" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B169" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C169" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D169" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B170" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C170" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D170" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B171" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C171" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D171" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B172" t="s">
+        <v>12</v>
+      </c>
+      <c r="C172" t="s">
         <v>13</v>
       </c>
-      <c r="C172" t="s">
-        <v>14</v>
-      </c>
       <c r="D172" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B173" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C173" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D173" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B174" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C174" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D174" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B175" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C175" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D175" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B176" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C176" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D176" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B177" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C177" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D177" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B178" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C178" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D178" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B179" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C179" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D179" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
+        <v>50</v>
+      </c>
+      <c r="B180" t="s">
         <v>51</v>
       </c>
-      <c r="B180" t="s">
-        <v>52</v>
-      </c>
       <c r="C180" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D180" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B181" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C181" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D181" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B182" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C182" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D182" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B183" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C183" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D183" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B184" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C184" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D184" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B185" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C185" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D185" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B186" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C186" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D186" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B187" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C187" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D187" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B188" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C188" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D188" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B189" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C189" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D189" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B190" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C190" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D190" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B191" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C191" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D191" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B192" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C192" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D192" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B193" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C193" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D193" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B194" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C194" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D194" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B195" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C195" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D195" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B196" t="s">
+        <v>9</v>
+      </c>
+      <c r="C196" t="s">
         <v>10</v>
       </c>
-      <c r="C196" t="s">
-        <v>11</v>
-      </c>
       <c r="D196" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B197" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C197" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D197" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B198" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C198" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D198" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B199" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C199" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D199" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B200" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C200" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D200" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B201" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C201" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D201" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B202" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C202" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D202" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B203" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C203" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D203" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B204" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C204" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D204" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B205" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C205" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D205" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B206" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C206" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D206" t="s">
         <v>321</v>
@@ -4277,153 +4273,153 @@
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B207" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C207" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D207" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B208" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C208" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D208" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B209" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C209" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D209" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B210" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C210" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D210" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B211" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C211" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D211" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B212" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C212" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D212" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B213" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C213" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D213" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B214" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C214" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D214" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B215" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C215" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D215" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B216" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C216" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D216" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B217" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C217" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D217" t="s">
         <v>321</v>
@@ -4431,335 +4427,335 @@
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B218" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C218" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D218" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B219" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C219" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D219" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B220" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C220" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D220" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B221" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C221" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D221" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B222" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C222" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D222" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B223" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C223" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D223" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B224" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C224" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D224" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B225" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C225" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D225" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B226" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C226" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D226" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B227" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C227" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D227" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B228" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C228" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D228" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B229" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C229" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D229" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B230" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C230" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D230" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B231" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C231" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D231" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B232" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C232" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D232" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B233" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C233" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D233" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B234" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C234" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D234" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B235" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C235" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D235" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B236" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C236" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D236" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B237" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C237" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D237" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B238" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C238" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D238" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B239" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C239" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D239" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B240" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C240" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D240" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B241" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C241" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D241" t="s">
         <v>321</v>
@@ -4767,111 +4763,111 @@
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B242" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C242" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D242" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B243" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C243" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D243" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B244" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C244" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D244" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B245" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C245" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D245" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B246" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C246" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D246" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B247" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C247" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D247" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B248" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C248" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D248" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B249" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C249" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D249" t="s">
         <v>321</v>
@@ -4879,13 +4875,13 @@
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B250" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C250" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D250" t="s">
         <v>321</v>
@@ -4893,195 +4889,195 @@
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B251" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C251" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D251" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B252" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C252" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D252" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B253" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C253" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D253" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B254" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C254" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D254" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B255" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C255" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D255" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B256" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C256" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D256" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B257" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C257" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D257" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B258" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C258" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D258" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B259" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C259" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D259" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B260" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C260" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D260" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B261" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C261" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D261" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B262" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C262" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D262" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B263" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C263" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D263" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B264" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C264" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D264" t="s">
         <v>321</v>
@@ -5089,41 +5085,41 @@
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B265" t="s">
+        <v>6</v>
+      </c>
+      <c r="C265" t="s">
         <v>7</v>
       </c>
-      <c r="C265" t="s">
-        <v>8</v>
-      </c>
       <c r="D265" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B266" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C266" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D266" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B267" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C267" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D267" t="s">
         <v>321</v>
@@ -5131,713 +5127,713 @@
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B268" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C268" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D268" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B269" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C269" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D269" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B270" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C270" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D270" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B271" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C271" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D271" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A272" s="1" t="s">
-        <v>22</v>
+      <c r="A272" t="s">
+        <v>21</v>
       </c>
       <c r="B272" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C272" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D272" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B273" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C273" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D273" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B274" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C274" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D274" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B275" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C275" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D275" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B276" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C276" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D276" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B277" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C277" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D277" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B278" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C278" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D278" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B279" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C279" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D279" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B280" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C280" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D280" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B281" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C281" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D281" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B282" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C282" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D282" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B283" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C283" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D283" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B284" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C284" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D284" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B285" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C285" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D285" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B286" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C286" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D286" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B287" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C287" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D287" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B288" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C288" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D288" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B289" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C289" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D289" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B290" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C290" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D290" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B291" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C291" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D291" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B292" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C292" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D292" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B293" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C293" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D293" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B294" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C294" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D294" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B295" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C295" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D295" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B296" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C296" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D296" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B297" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C297" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D297" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B298" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C298" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D298" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B299" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C299" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D299" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B300" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C300" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D300" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B301" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C301" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D301" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B302" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C302" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D302" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B303" t="s">
+        <v>6</v>
+      </c>
+      <c r="C303" t="s">
         <v>7</v>
       </c>
-      <c r="C303" t="s">
-        <v>8</v>
-      </c>
       <c r="D303" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B304" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C304" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D304" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B305" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C305" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D305" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B306" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C306" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D306" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B307" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C307" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D307" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B308" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C308" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D308" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B309" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C309" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D309" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B310" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C310" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D310" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B311" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C311" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D311" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B312" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C312" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D312" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B313" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C313" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D313" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B314" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C314" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D314" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B315" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C315" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D315" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B316" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C316" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D316" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B317" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C317" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D317" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B318" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C318" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D318" t="s">
         <v>321</v>
@@ -5845,13 +5841,13 @@
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B319" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C319" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D319" t="s">
         <v>321</v>
@@ -5859,517 +5855,517 @@
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B320" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C320" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D320" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B321" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C321" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D321" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B322" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C322" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D322" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B323" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C323" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D323" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B324" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C324" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D324" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B325" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C325" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D325" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B326" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C326" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D326" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B327" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C327" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D327" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B328" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C328" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D328" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B329" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C329" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D329" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B330" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C330" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D330" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B331" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C331" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D331" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B332" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C332" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D332" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B333" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C333" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D333" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B334" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C334" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D334" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B335" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C335" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D335" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B336" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C336" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D336" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B337" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C337" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D337" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B338" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C338" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D338" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B339" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C339" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D339" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B340" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C340" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D340" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B341" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C341" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D341" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B342" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C342" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D342" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B343" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C343" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D343" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B344" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C344" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D344" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B345" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C345" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D345" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B346" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C346" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D346" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B347" t="s">
+        <v>6</v>
+      </c>
+      <c r="C347" t="s">
         <v>7</v>
       </c>
-      <c r="C347" t="s">
-        <v>8</v>
-      </c>
       <c r="D347" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B348" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C348" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D348" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B349" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C349" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D349" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B350" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C350" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D350" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B351" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C351" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D351" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B352" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C352" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D352" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B353" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C353" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D353" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B354" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C354" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D354" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B355" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C355" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D355" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B356" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C356" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D356" t="s">
         <v>321</v>
@@ -6377,125 +6373,125 @@
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B357" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C357" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D357" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B358" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C358" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D358" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B359" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C359" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D359" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B360" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C360" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D360" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="361" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B361" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C361" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D361" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B362" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C362" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D362" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
     </row>
     <row r="363" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B363" t="s">
+        <v>6</v>
+      </c>
+      <c r="C363" t="s">
         <v>7</v>
       </c>
-      <c r="C363" t="s">
-        <v>8</v>
-      </c>
       <c r="D363" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
     </row>
     <row r="364" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B364" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C364" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D364" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B365" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C365" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D365" t="s">
         <v>321</v>
@@ -6503,13 +6499,13 @@
     </row>
     <row r="366" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B366" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C366" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D366" t="s">
         <v>321</v>
@@ -6517,13 +6513,13 @@
     </row>
     <row r="367" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B367" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C367" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D367" t="s">
         <v>321</v>
@@ -6531,27 +6527,27 @@
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B368" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C368" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D368" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="369" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B369" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C369" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D369" t="s">
         <v>321</v>
@@ -6559,223 +6555,223 @@
     </row>
     <row r="370" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B370" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C370" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D370" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="371" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B371" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C371" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D371" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
     </row>
     <row r="372" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B372" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C372" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D372" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="373" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B373" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C373" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D373" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
     </row>
     <row r="374" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B374" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C374" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D374" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="375" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B375" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C375" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D375" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="376" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B376" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C376" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D376" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="377" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B377" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C377" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D377" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="378" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B378" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C378" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D378" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
     </row>
     <row r="379" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B379" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C379" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D379" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
     </row>
     <row r="380" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B380" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C380" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D380" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="381" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B381" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C381" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D381" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
     </row>
     <row r="382" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B382" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C382" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D382" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="383" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B383" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C383" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D383" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="384" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B384" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C384" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D384" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="385" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B385" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C385" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D385" t="s">
         <v>321</v>
@@ -6783,41 +6779,41 @@
     </row>
     <row r="386" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B386" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C386" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D386" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="387" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B387" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C387" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D387" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="388" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B388" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C388" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D388" t="s">
         <v>321</v>
@@ -6825,111 +6821,111 @@
     </row>
     <row r="389" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B389" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C389" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D389" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
     </row>
     <row r="390" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B390" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C390" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D390" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="391" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B391" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C391" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D391" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="392" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B392" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C392" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D392" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="393" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B393" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C393" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D393" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
     </row>
     <row r="394" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B394" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C394" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D394" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
     </row>
     <row r="395" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B395" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C395" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D395" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="396" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B396" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C396" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D396" t="s">
         <v>321</v>
@@ -6937,13 +6933,13 @@
     </row>
     <row r="397" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B397" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C397" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D397" t="s">
         <v>321</v>
@@ -6951,125 +6947,125 @@
     </row>
     <row r="398" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B398" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C398" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D398" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="399" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B399" t="s">
+        <v>9</v>
+      </c>
+      <c r="C399" t="s">
         <v>10</v>
       </c>
-      <c r="C399" t="s">
-        <v>11</v>
-      </c>
       <c r="D399" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="400" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B400" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C400" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D400" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="401" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B401" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C401" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D401" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="402" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B402" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C402" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D402" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="403" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B403" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C403" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D403" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
     </row>
     <row r="404" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B404" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C404" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D404" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="405" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B405" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C405" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D405" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="406" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B406" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C406" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D406" t="s">
         <v>321</v>
@@ -7077,30 +7073,30 @@
     </row>
     <row r="407" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B407" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C407" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D407" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="408" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B408" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C408" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D408" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
     </row>
   </sheetData>

--- a/testaktivitet.xlsx
+++ b/testaktivitet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andran0803\Desktop\activitySorter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF5704A3-5966-4BED-8024-31CF98138E4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1822C8B8-AA67-4951-A4A5-3F3B29DB5C5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1074,7 +1074,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{30E01473-62A6-46D6-909C-C3B8FA180CA6}" name="Tabell1" displayName="Tabell1" ref="A1:D408" totalsRowShown="0">
   <autoFilter ref="A1:D408" xr:uid="{30E01473-62A6-46D6-909C-C3B8FA180CA6}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D408">
-    <sortCondition ref="A1:A408"/>
+    <sortCondition ref="D1:D408"/>
   </sortState>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{B54A823D-7219-4B0A-9B3D-D5BFC25C5D11}" name="Fullt navn"/>
@@ -1376,7 +1376,7 @@
   <dimension ref="A1:D408"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1403,21 +1403,21 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>299</v>
+        <v>34</v>
       </c>
       <c r="B2" t="s">
-        <v>51</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>299</v>
+        <v>75</v>
       </c>
       <c r="B3" t="s">
         <v>51</v>
@@ -1426,32 +1426,32 @@
         <v>4</v>
       </c>
       <c r="D3" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>299</v>
+        <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>51</v>
+        <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D4" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>34</v>
+        <v>120</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D5" t="s">
         <v>321</v>
@@ -1459,69 +1459,69 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>185</v>
+        <v>120</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D6" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>289</v>
+        <v>157</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>67</v>
+        <v>239</v>
       </c>
       <c r="B8" t="s">
         <v>3</v>
       </c>
       <c r="C8" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="D8" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>66</v>
+        <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C9" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D9" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B10" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="C10" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="D10" t="s">
         <v>321</v>
@@ -1529,13 +1529,13 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>35</v>
+        <v>62</v>
       </c>
       <c r="B11" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="C11" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="D11" t="s">
         <v>321</v>
@@ -1543,83 +1543,83 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>314</v>
+        <v>257</v>
       </c>
       <c r="B12" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="D12" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>314</v>
+        <v>257</v>
       </c>
       <c r="B13" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="D13" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>314</v>
+        <v>257</v>
       </c>
       <c r="B14" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="D14" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="B15" t="s">
-        <v>3</v>
+        <v>51</v>
       </c>
       <c r="C15" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D15" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>73</v>
+        <v>132</v>
       </c>
       <c r="B16" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="C16" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D16" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>120</v>
+        <v>152</v>
       </c>
       <c r="B17" t="s">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="C17" t="s">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="D17" t="s">
         <v>321</v>
@@ -1627,13 +1627,13 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>120</v>
+        <v>87</v>
       </c>
       <c r="B18" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C18" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D18" t="s">
         <v>321</v>
@@ -1641,41 +1641,41 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>120</v>
+        <v>143</v>
       </c>
       <c r="B19" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C19" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="D19" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>157</v>
+        <v>222</v>
       </c>
       <c r="B20" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C20" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D20" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>157</v>
+        <v>269</v>
       </c>
       <c r="B21" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C21" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D21" t="s">
         <v>321</v>
@@ -1683,41 +1683,41 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>157</v>
+        <v>83</v>
       </c>
       <c r="B22" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="C22" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D22" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>149</v>
+        <v>106</v>
       </c>
       <c r="B23" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="C23" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D23" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>239</v>
+        <v>264</v>
       </c>
       <c r="B24" t="s">
-        <v>3</v>
+        <v>51</v>
       </c>
       <c r="C24" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="D24" t="s">
         <v>321</v>
@@ -1725,27 +1725,27 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>183</v>
+        <v>264</v>
       </c>
       <c r="B25" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="C25" t="s">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="D25" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>5</v>
+        <v>80</v>
       </c>
       <c r="B26" t="s">
         <v>6</v>
       </c>
       <c r="C26" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D26" t="s">
         <v>321</v>
@@ -1753,10 +1753,10 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>74</v>
+        <v>308</v>
       </c>
       <c r="B27" t="s">
-        <v>33</v>
+        <v>178</v>
       </c>
       <c r="C27" t="s">
         <v>13</v>
@@ -1767,41 +1767,41 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>76</v>
+        <v>134</v>
       </c>
       <c r="B28" t="s">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="C28" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="D28" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>62</v>
+        <v>256</v>
       </c>
       <c r="B29" t="s">
         <v>18</v>
       </c>
       <c r="C29" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="D29" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>62</v>
+        <v>210</v>
       </c>
       <c r="B30" t="s">
         <v>18</v>
       </c>
       <c r="C30" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="D30" t="s">
         <v>321</v>
@@ -1809,83 +1809,83 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>62</v>
+        <v>265</v>
       </c>
       <c r="B31" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C31" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D31" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>142</v>
+        <v>265</v>
       </c>
       <c r="B32" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C32" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D32" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>180</v>
+        <v>47</v>
       </c>
       <c r="B33" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="C33" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="D33" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>180</v>
+        <v>102</v>
       </c>
       <c r="B34" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C34" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D34" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>180</v>
+        <v>28</v>
       </c>
       <c r="B35" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C35" t="s">
         <v>4</v>
       </c>
       <c r="D35" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>257</v>
+        <v>72</v>
       </c>
       <c r="B36" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C36" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D36" t="s">
         <v>321</v>
@@ -1893,10 +1893,10 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>257</v>
+        <v>154</v>
       </c>
       <c r="B37" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="C37" t="s">
         <v>4</v>
@@ -1907,13 +1907,13 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>257</v>
+        <v>146</v>
       </c>
       <c r="B38" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="C38" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D38" t="s">
         <v>321</v>
@@ -1921,13 +1921,13 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>125</v>
+        <v>217</v>
       </c>
       <c r="B39" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="C39" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="D39" t="s">
         <v>321</v>
@@ -1935,13 +1935,13 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>132</v>
+        <v>244</v>
       </c>
       <c r="B40" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C40" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D40" t="s">
         <v>321</v>
@@ -1949,55 +1949,55 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="B41" t="s">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="C41" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="D41" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>132</v>
+        <v>100</v>
       </c>
       <c r="B42" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C42" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D42" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>131</v>
+        <v>181</v>
       </c>
       <c r="B43" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="C43" t="s">
         <v>13</v>
       </c>
       <c r="D43" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>152</v>
+        <v>70</v>
       </c>
       <c r="B44" t="s">
-        <v>39</v>
+        <v>3</v>
       </c>
       <c r="C44" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="D44" t="s">
         <v>321</v>
@@ -2005,13 +2005,13 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>87</v>
+        <v>288</v>
       </c>
       <c r="B45" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C45" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="D45" t="s">
         <v>321</v>
@@ -2019,80 +2019,80 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>172</v>
+        <v>96</v>
       </c>
       <c r="B46" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="C46" t="s">
         <v>4</v>
       </c>
       <c r="D46" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>71</v>
+        <v>130</v>
       </c>
       <c r="B47" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="C47" t="s">
         <v>4</v>
       </c>
       <c r="D47" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="B48" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C48" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="D48" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>71</v>
+        <v>203</v>
       </c>
       <c r="B49" t="s">
         <v>25</v>
       </c>
       <c r="C49" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D49" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>301</v>
+        <v>30</v>
       </c>
       <c r="B50" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="C50" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D50" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>143</v>
+        <v>281</v>
       </c>
       <c r="B51" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="C51" t="s">
         <v>19</v>
@@ -2103,10 +2103,10 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>222</v>
+        <v>271</v>
       </c>
       <c r="B52" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="C52" t="s">
         <v>4</v>
@@ -2117,13 +2117,13 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>269</v>
+        <v>208</v>
       </c>
       <c r="B53" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="C53" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D53" t="s">
         <v>321</v>
@@ -2131,69 +2131,69 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>55</v>
+        <v>243</v>
       </c>
       <c r="B54" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="C54" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="D54" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>69</v>
+        <v>229</v>
       </c>
       <c r="B55" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="C55" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D55" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>293</v>
+        <v>91</v>
       </c>
       <c r="B56" t="s">
         <v>18</v>
       </c>
       <c r="C56" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="D56" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>79</v>
+        <v>36</v>
       </c>
       <c r="B57" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="C57" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="D57" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>83</v>
+        <v>36</v>
       </c>
       <c r="B58" t="s">
-        <v>39</v>
+        <v>6</v>
       </c>
       <c r="C58" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="D58" t="s">
         <v>321</v>
@@ -2201,13 +2201,13 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>106</v>
+        <v>37</v>
       </c>
       <c r="B59" t="s">
         <v>33</v>
       </c>
       <c r="C59" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D59" t="s">
         <v>321</v>
@@ -2215,52 +2215,52 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>214</v>
+        <v>121</v>
       </c>
       <c r="B60" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C60" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D60" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B61" t="s">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="C61" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="D61" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>264</v>
+        <v>295</v>
       </c>
       <c r="B62" t="s">
-        <v>51</v>
+        <v>6</v>
       </c>
       <c r="C62" t="s">
         <v>4</v>
       </c>
       <c r="D62" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>264</v>
+        <v>295</v>
       </c>
       <c r="B63" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="C63" t="s">
         <v>4</v>
@@ -2271,13 +2271,13 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>264</v>
+        <v>88</v>
       </c>
       <c r="B64" t="s">
-        <v>51</v>
+        <v>178</v>
       </c>
       <c r="C64" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D64" t="s">
         <v>321</v>
@@ -2285,27 +2285,27 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>80</v>
+        <v>286</v>
       </c>
       <c r="B65" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="C65" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D65" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>80</v>
+        <v>263</v>
       </c>
       <c r="B66" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C66" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="D66" t="s">
         <v>321</v>
@@ -2313,69 +2313,69 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="B67" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="C67" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D67" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>241</v>
+        <v>215</v>
       </c>
       <c r="B68" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="C68" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="D68" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>308</v>
+        <v>220</v>
       </c>
       <c r="B69" t="s">
-        <v>178</v>
+        <v>20</v>
       </c>
       <c r="C69" t="s">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="D69" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>308</v>
+        <v>124</v>
       </c>
       <c r="B70" t="s">
-        <v>178</v>
+        <v>9</v>
       </c>
       <c r="C70" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D70" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>308</v>
+        <v>233</v>
       </c>
       <c r="B71" t="s">
-        <v>178</v>
+        <v>25</v>
       </c>
       <c r="C71" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="D71" t="s">
         <v>321</v>
@@ -2383,66 +2383,66 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>177</v>
+        <v>273</v>
       </c>
       <c r="B72" t="s">
         <v>178</v>
       </c>
       <c r="C72" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D72" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>168</v>
+        <v>11</v>
       </c>
       <c r="B73" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="C73" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="D73" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>309</v>
+        <v>38</v>
       </c>
       <c r="B74" t="s">
-        <v>18</v>
+        <v>51</v>
       </c>
       <c r="C74" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="D74" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>322</v>
+        <v>38</v>
       </c>
       <c r="B75" t="s">
-        <v>9</v>
+        <v>51</v>
       </c>
       <c r="C75" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="D75" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>134</v>
+        <v>174</v>
       </c>
       <c r="B76" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="C76" t="s">
         <v>19</v>
@@ -2453,27 +2453,27 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>14</v>
+        <v>122</v>
       </c>
       <c r="B77" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C77" t="s">
         <v>4</v>
       </c>
       <c r="D77" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>256</v>
+        <v>316</v>
       </c>
       <c r="B78" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="C78" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="D78" t="s">
         <v>321</v>
@@ -2481,13 +2481,13 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>210</v>
+        <v>41</v>
       </c>
       <c r="B79" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C79" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="D79" t="s">
         <v>321</v>
@@ -2495,69 +2495,69 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>311</v>
+        <v>151</v>
       </c>
       <c r="B80" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C80" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="D80" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>159</v>
+        <v>303</v>
       </c>
       <c r="B81" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="C81" t="s">
         <v>4</v>
       </c>
       <c r="D81" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>159</v>
+        <v>232</v>
       </c>
       <c r="B82" t="s">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="C82" t="s">
         <v>4</v>
       </c>
       <c r="D82" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>159</v>
+        <v>254</v>
       </c>
       <c r="B83" t="s">
-        <v>51</v>
+        <v>25</v>
       </c>
       <c r="C83" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="D83" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>265</v>
+        <v>317</v>
       </c>
       <c r="B84" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="C84" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="D84" t="s">
         <v>321</v>
@@ -2565,13 +2565,13 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>265</v>
+        <v>306</v>
       </c>
       <c r="B85" t="s">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="C85" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="D85" t="s">
         <v>321</v>
@@ -2579,27 +2579,27 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>265</v>
+        <v>147</v>
       </c>
       <c r="B86" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="C86" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D86" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>47</v>
+        <v>272</v>
       </c>
       <c r="B87" t="s">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="C87" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D87" t="s">
         <v>321</v>
@@ -2607,27 +2607,27 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>156</v>
+        <v>266</v>
       </c>
       <c r="B88" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="C88" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="D88" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>102</v>
+        <v>294</v>
       </c>
       <c r="B89" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="C89" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D89" t="s">
         <v>321</v>
@@ -2635,24 +2635,24 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>2</v>
+        <v>294</v>
       </c>
       <c r="B90" t="s">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="C90" t="s">
         <v>4</v>
       </c>
       <c r="D90" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>28</v>
+        <v>209</v>
       </c>
       <c r="B91" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="C91" t="s">
         <v>4</v>
@@ -2663,27 +2663,27 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>201</v>
+        <v>138</v>
       </c>
       <c r="B92" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="C92" t="s">
         <v>4</v>
       </c>
       <c r="D92" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>72</v>
+        <v>166</v>
       </c>
       <c r="B93" t="s">
-        <v>20</v>
+        <v>51</v>
       </c>
       <c r="C93" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D93" t="s">
         <v>321</v>
@@ -2691,38 +2691,38 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>129</v>
+        <v>109</v>
       </c>
       <c r="B94" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C94" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="D94" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B95" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C95" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="D95" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>154</v>
+        <v>133</v>
       </c>
       <c r="B96" t="s">
-        <v>6</v>
+        <v>178</v>
       </c>
       <c r="C96" t="s">
         <v>4</v>
@@ -2733,41 +2733,41 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>8</v>
+        <v>186</v>
       </c>
       <c r="B97" t="s">
-        <v>9</v>
+        <v>178</v>
       </c>
       <c r="C97" t="s">
         <v>4</v>
       </c>
       <c r="D97" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>304</v>
+        <v>284</v>
       </c>
       <c r="B98" t="s">
         <v>178</v>
       </c>
       <c r="C98" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D98" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>146</v>
+        <v>21</v>
       </c>
       <c r="B99" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C99" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D99" t="s">
         <v>321</v>
@@ -2775,10 +2775,10 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>217</v>
+        <v>101</v>
       </c>
       <c r="B100" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="C100" t="s">
         <v>19</v>
@@ -2789,13 +2789,13 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>244</v>
+        <v>163</v>
       </c>
       <c r="B101" t="s">
         <v>51</v>
       </c>
       <c r="C101" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="D101" t="s">
         <v>321</v>
@@ -2803,55 +2803,55 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>16</v>
+        <v>184</v>
       </c>
       <c r="B102" t="s">
         <v>51</v>
       </c>
       <c r="C102" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="D102" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>54</v>
+        <v>236</v>
       </c>
       <c r="B103" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="C103" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D103" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>161</v>
+        <v>84</v>
       </c>
       <c r="B104" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C104" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="D104" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>116</v>
+        <v>84</v>
       </c>
       <c r="B105" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="C105" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D105" t="s">
         <v>321</v>
@@ -2859,55 +2859,55 @@
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>235</v>
+        <v>94</v>
       </c>
       <c r="B106" t="s">
-        <v>18</v>
+        <v>51</v>
       </c>
       <c r="C106" t="s">
         <v>4</v>
       </c>
       <c r="D106" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>150</v>
+        <v>268</v>
       </c>
       <c r="B107" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="C107" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="D107" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>100</v>
+        <v>297</v>
       </c>
       <c r="B108" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C108" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="D108" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>100</v>
+        <v>199</v>
       </c>
       <c r="B109" t="s">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="C109" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D109" t="s">
         <v>321</v>
@@ -2915,83 +2915,83 @@
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>100</v>
+        <v>43</v>
       </c>
       <c r="B110" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C110" t="s">
         <v>10</v>
       </c>
       <c r="D110" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>81</v>
+        <v>43</v>
       </c>
       <c r="B111" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="C111" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D111" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>250</v>
+        <v>127</v>
       </c>
       <c r="B112" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C112" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="D112" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>250</v>
+        <v>127</v>
       </c>
       <c r="B113" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C113" t="s">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="D113" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>250</v>
+        <v>218</v>
       </c>
       <c r="B114" t="s">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="C114" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D114" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>181</v>
+        <v>145</v>
       </c>
       <c r="B115" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C115" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D115" t="s">
         <v>321</v>
@@ -2999,27 +2999,27 @@
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>221</v>
+        <v>280</v>
       </c>
       <c r="B116" t="s">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="C116" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="D116" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>70</v>
+        <v>285</v>
       </c>
       <c r="B117" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C117" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="D117" t="s">
         <v>321</v>
@@ -3027,41 +3027,41 @@
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="B118" t="s">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="C118" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="D118" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>288</v>
+        <v>160</v>
       </c>
       <c r="B119" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C119" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="D119" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>288</v>
+        <v>274</v>
       </c>
       <c r="B120" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C120" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D120" t="s">
         <v>321</v>
@@ -3069,49 +3069,49 @@
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>53</v>
+        <v>307</v>
       </c>
       <c r="B121" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="C121" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="D121" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>313</v>
+        <v>219</v>
       </c>
       <c r="B122" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C122" t="s">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="D122" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>77</v>
+        <v>252</v>
       </c>
       <c r="B123" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="C123" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D123" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>96</v>
+        <v>292</v>
       </c>
       <c r="B124" t="s">
         <v>39</v>
@@ -3125,10 +3125,10 @@
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>130</v>
+        <v>61</v>
       </c>
       <c r="B125" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="C125" t="s">
         <v>4</v>
@@ -3139,69 +3139,69 @@
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>130</v>
+        <v>195</v>
       </c>
       <c r="B126" t="s">
         <v>33</v>
       </c>
       <c r="C126" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D126" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>130</v>
+        <v>258</v>
       </c>
       <c r="B127" t="s">
-        <v>51</v>
+        <v>6</v>
       </c>
       <c r="C127" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="D127" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>193</v>
+        <v>296</v>
       </c>
       <c r="B128" t="s">
-        <v>18</v>
+        <v>178</v>
       </c>
       <c r="C128" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="D128" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>315</v>
+        <v>296</v>
       </c>
       <c r="B129" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="C129" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D129" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>59</v>
+        <v>296</v>
       </c>
       <c r="B130" t="s">
-        <v>18</v>
+        <v>178</v>
       </c>
       <c r="C130" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D130" t="s">
         <v>321</v>
@@ -3209,83 +3209,83 @@
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>59</v>
+        <v>227</v>
       </c>
       <c r="B131" t="s">
-        <v>18</v>
+        <v>178</v>
       </c>
       <c r="C131" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D131" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>59</v>
+        <v>287</v>
       </c>
       <c r="B132" t="s">
-        <v>25</v>
+        <v>178</v>
       </c>
       <c r="C132" t="s">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="D132" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>279</v>
+        <v>23</v>
       </c>
       <c r="B133" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="C133" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D133" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>139</v>
+        <v>93</v>
       </c>
       <c r="B134" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C134" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="D134" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>234</v>
+        <v>211</v>
       </c>
       <c r="B135" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C135" t="s">
         <v>4</v>
       </c>
       <c r="D135" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>203</v>
+        <v>249</v>
       </c>
       <c r="B136" t="s">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="C136" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="D136" t="s">
         <v>321</v>
@@ -3293,13 +3293,13 @@
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>30</v>
+        <v>188</v>
       </c>
       <c r="B137" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="C137" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D137" t="s">
         <v>321</v>
@@ -3307,24 +3307,24 @@
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>282</v>
+        <v>135</v>
       </c>
       <c r="B138" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="C138" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="D138" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>281</v>
+        <v>56</v>
       </c>
       <c r="B139" t="s">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="C139" t="s">
         <v>19</v>
@@ -3335,24 +3335,24 @@
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>271</v>
+        <v>57</v>
       </c>
       <c r="B140" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="C140" t="s">
         <v>4</v>
       </c>
       <c r="D140" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>271</v>
+        <v>176</v>
       </c>
       <c r="B141" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="C141" t="s">
         <v>4</v>
@@ -3363,27 +3363,27 @@
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>271</v>
+        <v>213</v>
       </c>
       <c r="B142" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="C142" t="s">
         <v>4</v>
       </c>
       <c r="D142" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="B143" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="C143" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D143" t="s">
         <v>321</v>
@@ -3391,35 +3391,35 @@
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>208</v>
+        <v>26</v>
       </c>
       <c r="B144" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C144" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="D144" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
       <c r="B145" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C145" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="D145" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>243</v>
+        <v>187</v>
       </c>
       <c r="B146" t="s">
         <v>25</v>
@@ -3433,27 +3433,27 @@
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>229</v>
+        <v>299</v>
       </c>
       <c r="B147" t="s">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="C147" t="s">
         <v>4</v>
       </c>
       <c r="D147" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>229</v>
+        <v>299</v>
       </c>
       <c r="B148" t="s">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="C148" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D148" t="s">
         <v>320</v>
@@ -3461,10 +3461,10 @@
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>229</v>
+        <v>299</v>
       </c>
       <c r="B149" t="s">
-        <v>6</v>
+        <v>51</v>
       </c>
       <c r="C149" t="s">
         <v>4</v>
@@ -3475,13 +3475,13 @@
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>170</v>
+        <v>185</v>
       </c>
       <c r="B150" t="s">
         <v>6</v>
       </c>
       <c r="C150" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D150" t="s">
         <v>320</v>
@@ -3489,41 +3489,41 @@
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>91</v>
+        <v>289</v>
       </c>
       <c r="B151" t="s">
         <v>18</v>
       </c>
       <c r="C151" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="D151" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>36</v>
+        <v>67</v>
       </c>
       <c r="B152" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="C152" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D152" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="B153" t="s">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="C153" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D153" t="s">
         <v>320</v>
@@ -3531,27 +3531,27 @@
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>36</v>
+        <v>314</v>
       </c>
       <c r="B154" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="C154" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D154" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>114</v>
+        <v>314</v>
       </c>
       <c r="B155" t="s">
         <v>18</v>
       </c>
       <c r="C155" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D155" t="s">
         <v>320</v>
@@ -3559,10 +3559,10 @@
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>169</v>
+        <v>314</v>
       </c>
       <c r="B156" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="C156" t="s">
         <v>19</v>
@@ -3573,13 +3573,13 @@
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>226</v>
+        <v>115</v>
       </c>
       <c r="B157" t="s">
-        <v>39</v>
+        <v>3</v>
       </c>
       <c r="C157" t="s">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="D157" t="s">
         <v>320</v>
@@ -3587,27 +3587,27 @@
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>37</v>
+        <v>73</v>
       </c>
       <c r="B158" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="C158" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D158" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>259</v>
+        <v>120</v>
       </c>
       <c r="B159" t="s">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="C159" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="D159" t="s">
         <v>320</v>
@@ -3615,13 +3615,13 @@
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>49</v>
+        <v>157</v>
       </c>
       <c r="B160" t="s">
         <v>15</v>
       </c>
       <c r="C160" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D160" t="s">
         <v>320</v>
@@ -3629,41 +3629,41 @@
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>121</v>
+        <v>157</v>
       </c>
       <c r="B161" t="s">
-        <v>51</v>
+        <v>15</v>
       </c>
       <c r="C161" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="D161" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>165</v>
+        <v>149</v>
       </c>
       <c r="B162" t="s">
-        <v>51</v>
+        <v>9</v>
       </c>
       <c r="C162" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="D162" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>108</v>
+        <v>183</v>
       </c>
       <c r="B163" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="C163" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="D163" t="s">
         <v>320</v>
@@ -3671,13 +3671,13 @@
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>283</v>
+        <v>76</v>
       </c>
       <c r="B164" t="s">
-        <v>6</v>
+        <v>51</v>
       </c>
       <c r="C164" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="D164" t="s">
         <v>320</v>
@@ -3685,27 +3685,27 @@
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>295</v>
+        <v>62</v>
       </c>
       <c r="B165" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="C165" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="D165" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>295</v>
+        <v>62</v>
       </c>
       <c r="B166" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="C166" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="D166" t="s">
         <v>320</v>
@@ -3713,24 +3713,24 @@
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>295</v>
+        <v>142</v>
       </c>
       <c r="B167" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="C167" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="D167" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>246</v>
+        <v>180</v>
       </c>
       <c r="B168" t="s">
-        <v>178</v>
+        <v>25</v>
       </c>
       <c r="C168" t="s">
         <v>4</v>
@@ -3741,10 +3741,10 @@
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>224</v>
+        <v>180</v>
       </c>
       <c r="B169" t="s">
-        <v>178</v>
+        <v>25</v>
       </c>
       <c r="C169" t="s">
         <v>4</v>
@@ -3755,27 +3755,27 @@
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>88</v>
+        <v>180</v>
       </c>
       <c r="B170" t="s">
-        <v>178</v>
+        <v>25</v>
       </c>
       <c r="C170" t="s">
         <v>4</v>
       </c>
       <c r="D170" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>310</v>
+        <v>132</v>
       </c>
       <c r="B171" t="s">
-        <v>178</v>
+        <v>33</v>
       </c>
       <c r="C171" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D171" t="s">
         <v>320</v>
@@ -3783,10 +3783,10 @@
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>310</v>
+        <v>132</v>
       </c>
       <c r="B172" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="C172" t="s">
         <v>13</v>
@@ -3797,10 +3797,10 @@
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>310</v>
+        <v>131</v>
       </c>
       <c r="B173" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="C173" t="s">
         <v>13</v>
@@ -3811,13 +3811,13 @@
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>158</v>
+        <v>172</v>
       </c>
       <c r="B174" t="s">
         <v>9</v>
       </c>
       <c r="C174" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="D174" t="s">
         <v>320</v>
@@ -3825,41 +3825,41 @@
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>286</v>
+        <v>71</v>
       </c>
       <c r="B175" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C175" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D175" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>263</v>
+        <v>71</v>
       </c>
       <c r="B176" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="C176" t="s">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="D176" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>192</v>
+        <v>71</v>
       </c>
       <c r="B177" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C177" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D177" t="s">
         <v>320</v>
@@ -3867,24 +3867,24 @@
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>64</v>
+        <v>301</v>
       </c>
       <c r="B178" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="C178" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D178" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>267</v>
+        <v>55</v>
       </c>
       <c r="B179" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="C179" t="s">
         <v>4</v>
@@ -3895,13 +3895,13 @@
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="B180" t="s">
-        <v>51</v>
+        <v>6</v>
       </c>
       <c r="C180" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D180" t="s">
         <v>320</v>
@@ -3909,13 +3909,13 @@
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>216</v>
+        <v>293</v>
       </c>
       <c r="B181" t="s">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="C181" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D181" t="s">
         <v>320</v>
@@ -3923,13 +3923,13 @@
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>32</v>
+        <v>79</v>
       </c>
       <c r="B182" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="C182" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="D182" t="s">
         <v>320</v>
@@ -3937,13 +3937,13 @@
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>278</v>
+        <v>214</v>
       </c>
       <c r="B183" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="C183" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="D183" t="s">
         <v>320</v>
@@ -3951,7 +3951,7 @@
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>212</v>
+        <v>167</v>
       </c>
       <c r="B184" t="s">
         <v>15</v>
@@ -3965,27 +3965,27 @@
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>215</v>
+        <v>264</v>
       </c>
       <c r="B185" t="s">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="C185" t="s">
         <v>4</v>
       </c>
       <c r="D185" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>171</v>
+        <v>80</v>
       </c>
       <c r="B186" t="s">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="C186" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D186" t="s">
         <v>320</v>
@@ -3993,13 +3993,13 @@
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>171</v>
+        <v>80</v>
       </c>
       <c r="B187" t="s">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="C187" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D187" t="s">
         <v>320</v>
@@ -4007,7 +4007,7 @@
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>171</v>
+        <v>241</v>
       </c>
       <c r="B188" t="s">
         <v>31</v>
@@ -4021,13 +4021,13 @@
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>197</v>
+        <v>308</v>
       </c>
       <c r="B189" t="s">
-        <v>3</v>
+        <v>178</v>
       </c>
       <c r="C189" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="D189" t="s">
         <v>320</v>
@@ -4035,13 +4035,13 @@
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>99</v>
+        <v>308</v>
       </c>
       <c r="B190" t="s">
-        <v>20</v>
+        <v>178</v>
       </c>
       <c r="C190" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="D190" t="s">
         <v>320</v>
@@ -4049,10 +4049,10 @@
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>242</v>
+        <v>177</v>
       </c>
       <c r="B191" t="s">
-        <v>25</v>
+        <v>178</v>
       </c>
       <c r="C191" t="s">
         <v>4</v>
@@ -4063,52 +4063,52 @@
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>220</v>
+        <v>168</v>
       </c>
       <c r="B192" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C192" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D192" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>124</v>
+        <v>309</v>
       </c>
       <c r="B193" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C193" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="D193" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>233</v>
+        <v>322</v>
       </c>
       <c r="B194" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C194" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="D194" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>231</v>
+        <v>14</v>
       </c>
       <c r="B195" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C195" t="s">
         <v>4</v>
@@ -4119,13 +4119,13 @@
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>273</v>
+        <v>311</v>
       </c>
       <c r="B196" t="s">
         <v>9</v>
       </c>
       <c r="C196" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D196" t="s">
         <v>320</v>
@@ -4133,27 +4133,27 @@
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>273</v>
+        <v>159</v>
       </c>
       <c r="B197" t="s">
-        <v>178</v>
+        <v>51</v>
       </c>
       <c r="C197" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D197" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>273</v>
+        <v>159</v>
       </c>
       <c r="B198" t="s">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="C198" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D198" t="s">
         <v>320</v>
@@ -4161,27 +4161,27 @@
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>11</v>
+        <v>159</v>
       </c>
       <c r="B199" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="C199" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D199" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>38</v>
+        <v>265</v>
       </c>
       <c r="B200" t="s">
-        <v>51</v>
+        <v>15</v>
       </c>
       <c r="C200" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D200" t="s">
         <v>320</v>
@@ -4189,41 +4189,41 @@
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>38</v>
+        <v>156</v>
       </c>
       <c r="B201" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="C201" t="s">
         <v>40</v>
       </c>
       <c r="D201" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>38</v>
+        <v>2</v>
       </c>
       <c r="B202" t="s">
-        <v>51</v>
+        <v>3</v>
       </c>
       <c r="C202" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D202" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>276</v>
+        <v>201</v>
       </c>
       <c r="B203" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="C203" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="D203" t="s">
         <v>320</v>
@@ -4231,13 +4231,13 @@
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>276</v>
+        <v>129</v>
       </c>
       <c r="B204" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C204" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D204" t="s">
         <v>320</v>
@@ -4245,10 +4245,10 @@
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>276</v>
+        <v>204</v>
       </c>
       <c r="B205" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C205" t="s">
         <v>19</v>
@@ -4259,27 +4259,27 @@
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>174</v>
+        <v>8</v>
       </c>
       <c r="B206" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C206" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="D206" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="B207" t="s">
-        <v>3</v>
+        <v>178</v>
       </c>
       <c r="C207" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="D207" t="s">
         <v>320</v>
@@ -4287,7 +4287,7 @@
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>141</v>
+        <v>16</v>
       </c>
       <c r="B208" t="s">
         <v>51</v>
@@ -4301,10 +4301,10 @@
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>141</v>
+        <v>54</v>
       </c>
       <c r="B209" t="s">
-        <v>6</v>
+        <v>51</v>
       </c>
       <c r="C209" t="s">
         <v>4</v>
@@ -4315,13 +4315,13 @@
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>141</v>
+        <v>161</v>
       </c>
       <c r="B210" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C210" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D210" t="s">
         <v>320</v>
@@ -4329,7 +4329,7 @@
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>305</v>
+        <v>235</v>
       </c>
       <c r="B211" t="s">
         <v>18</v>
@@ -4343,27 +4343,27 @@
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>122</v>
+        <v>150</v>
       </c>
       <c r="B212" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="C212" t="s">
         <v>4</v>
       </c>
       <c r="D212" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>24</v>
+        <v>100</v>
       </c>
       <c r="B213" t="s">
         <v>3</v>
       </c>
       <c r="C213" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D213" t="s">
         <v>320</v>
@@ -4371,13 +4371,13 @@
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>247</v>
+        <v>100</v>
       </c>
       <c r="B214" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C214" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D214" t="s">
         <v>320</v>
@@ -4385,13 +4385,13 @@
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>175</v>
+        <v>81</v>
       </c>
       <c r="B215" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="C215" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D215" t="s">
         <v>320</v>
@@ -4399,13 +4399,13 @@
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>225</v>
+        <v>250</v>
       </c>
       <c r="B216" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="C216" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="D216" t="s">
         <v>320</v>
@@ -4413,55 +4413,55 @@
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>316</v>
+        <v>250</v>
       </c>
       <c r="B217" t="s">
         <v>3</v>
       </c>
       <c r="C217" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D217" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>41</v>
+        <v>250</v>
       </c>
       <c r="B218" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C218" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D218" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>151</v>
+        <v>221</v>
       </c>
       <c r="B219" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="C219" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="D219" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>277</v>
+        <v>288</v>
       </c>
       <c r="B220" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="C220" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="D220" t="s">
         <v>320</v>
@@ -4469,13 +4469,13 @@
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>270</v>
+        <v>288</v>
       </c>
       <c r="B221" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C221" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="D221" t="s">
         <v>320</v>
@@ -4483,10 +4483,10 @@
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>137</v>
+        <v>53</v>
       </c>
       <c r="B222" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C222" t="s">
         <v>4</v>
@@ -4497,24 +4497,24 @@
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>303</v>
+        <v>313</v>
       </c>
       <c r="B223" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="C223" t="s">
         <v>4</v>
       </c>
       <c r="D223" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>42</v>
+        <v>77</v>
       </c>
       <c r="B224" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C224" t="s">
         <v>4</v>
@@ -4525,13 +4525,13 @@
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>253</v>
+        <v>130</v>
       </c>
       <c r="B225" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C225" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D225" t="s">
         <v>320</v>
@@ -4539,13 +4539,13 @@
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>104</v>
+        <v>130</v>
       </c>
       <c r="B226" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="C226" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D226" t="s">
         <v>320</v>
@@ -4553,13 +4553,13 @@
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>86</v>
+        <v>193</v>
       </c>
       <c r="B227" t="s">
         <v>18</v>
       </c>
       <c r="C227" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D227" t="s">
         <v>320</v>
@@ -4567,13 +4567,13 @@
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>112</v>
+        <v>315</v>
       </c>
       <c r="B228" t="s">
         <v>18</v>
       </c>
       <c r="C228" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="D228" t="s">
         <v>320</v>
@@ -4581,27 +4581,27 @@
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>232</v>
+        <v>59</v>
       </c>
       <c r="B229" t="s">
         <v>18</v>
       </c>
       <c r="C229" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="D229" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>232</v>
+        <v>59</v>
       </c>
       <c r="B230" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C230" t="s">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="D230" t="s">
         <v>320</v>
@@ -4609,7 +4609,7 @@
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>232</v>
+        <v>279</v>
       </c>
       <c r="B231" t="s">
         <v>25</v>
@@ -4623,13 +4623,13 @@
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>48</v>
+        <v>139</v>
       </c>
       <c r="B232" t="s">
         <v>25</v>
       </c>
       <c r="C232" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="D232" t="s">
         <v>320</v>
@@ -4637,13 +4637,13 @@
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>110</v>
+        <v>234</v>
       </c>
       <c r="B233" t="s">
         <v>25</v>
       </c>
       <c r="C233" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="D233" t="s">
         <v>320</v>
@@ -4651,41 +4651,41 @@
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>254</v>
+        <v>282</v>
       </c>
       <c r="B234" t="s">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="C234" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="D234" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>317</v>
+        <v>271</v>
       </c>
       <c r="B235" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="C235" t="s">
         <v>4</v>
       </c>
       <c r="D235" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>52</v>
+        <v>271</v>
       </c>
       <c r="B236" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="C236" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D236" t="s">
         <v>320</v>
@@ -4693,27 +4693,27 @@
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>306</v>
+        <v>208</v>
       </c>
       <c r="B237" t="s">
-        <v>51</v>
+        <v>6</v>
       </c>
       <c r="C237" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="D237" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>97</v>
+        <v>208</v>
       </c>
       <c r="B238" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="C238" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="D238" t="s">
         <v>320</v>
@@ -4721,13 +4721,13 @@
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>261</v>
+        <v>229</v>
       </c>
       <c r="B239" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="C239" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D239" t="s">
         <v>320</v>
@@ -4735,13 +4735,13 @@
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B240" t="s">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="C240" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D240" t="s">
         <v>320</v>
@@ -4749,24 +4749,24 @@
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>147</v>
+        <v>170</v>
       </c>
       <c r="B241" t="s">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="C241" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D241" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="B242" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C242" t="s">
         <v>10</v>
@@ -4777,10 +4777,10 @@
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>98</v>
+        <v>114</v>
       </c>
       <c r="B243" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="C243" t="s">
         <v>10</v>
@@ -4791,10 +4791,10 @@
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>230</v>
+        <v>169</v>
       </c>
       <c r="B244" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="C244" t="s">
         <v>19</v>
@@ -4805,10 +4805,10 @@
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="B245" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="C245" t="s">
         <v>40</v>
@@ -4819,13 +4819,13 @@
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>230</v>
+        <v>259</v>
       </c>
       <c r="B246" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="C246" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D246" t="s">
         <v>320</v>
@@ -4833,13 +4833,13 @@
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>95</v>
+        <v>49</v>
       </c>
       <c r="B247" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="C247" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="D247" t="s">
         <v>320</v>
@@ -4847,13 +4847,13 @@
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>17</v>
+        <v>108</v>
       </c>
       <c r="B248" t="s">
-        <v>6</v>
+        <v>51</v>
       </c>
       <c r="C248" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="D248" t="s">
         <v>320</v>
@@ -4861,7 +4861,7 @@
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>272</v>
+        <v>283</v>
       </c>
       <c r="B249" t="s">
         <v>6</v>
@@ -4870,32 +4870,32 @@
         <v>19</v>
       </c>
       <c r="D249" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>266</v>
+        <v>295</v>
       </c>
       <c r="B250" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="C250" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="D250" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>266</v>
+        <v>246</v>
       </c>
       <c r="B251" t="s">
-        <v>20</v>
+        <v>178</v>
       </c>
       <c r="C251" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="D251" t="s">
         <v>320</v>
@@ -4903,13 +4903,13 @@
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>266</v>
+        <v>224</v>
       </c>
       <c r="B252" t="s">
-        <v>33</v>
+        <v>178</v>
       </c>
       <c r="C252" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="D252" t="s">
         <v>320</v>
@@ -4917,13 +4917,13 @@
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>294</v>
+        <v>310</v>
       </c>
       <c r="B253" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C253" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="D253" t="s">
         <v>320</v>
@@ -4931,66 +4931,66 @@
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>294</v>
+        <v>310</v>
       </c>
       <c r="B254" t="s">
         <v>18</v>
       </c>
       <c r="C254" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="D254" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>294</v>
+        <v>310</v>
       </c>
       <c r="B255" t="s">
-        <v>39</v>
+        <v>178</v>
       </c>
       <c r="C255" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D255" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>209</v>
+        <v>158</v>
       </c>
       <c r="B256" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="C256" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="D256" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>138</v>
+        <v>192</v>
       </c>
       <c r="B257" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="C257" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D257" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>153</v>
+        <v>267</v>
       </c>
       <c r="B258" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="C258" t="s">
         <v>4</v>
@@ -5001,13 +5001,13 @@
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>153</v>
+        <v>50</v>
       </c>
       <c r="B259" t="s">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="C259" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D259" t="s">
         <v>320</v>
@@ -5015,13 +5015,13 @@
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>153</v>
+        <v>216</v>
       </c>
       <c r="B260" t="s">
         <v>51</v>
       </c>
       <c r="C260" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D260" t="s">
         <v>320</v>
@@ -5029,27 +5029,27 @@
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>166</v>
+        <v>32</v>
       </c>
       <c r="B261" t="s">
         <v>51</v>
       </c>
       <c r="C261" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D261" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>90</v>
+        <v>278</v>
       </c>
       <c r="B262" t="s">
-        <v>51</v>
+        <v>15</v>
       </c>
       <c r="C262" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D262" t="s">
         <v>320</v>
@@ -5057,13 +5057,13 @@
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>92</v>
+        <v>212</v>
       </c>
       <c r="B263" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C263" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="D263" t="s">
         <v>320</v>
@@ -5071,27 +5071,27 @@
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>109</v>
+        <v>171</v>
       </c>
       <c r="B264" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="C264" t="s">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="D264" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="B265" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="C265" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D265" t="s">
         <v>320</v>
@@ -5099,69 +5099,69 @@
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>205</v>
+        <v>171</v>
       </c>
       <c r="B266" t="s">
         <v>31</v>
       </c>
       <c r="C266" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="D266" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>133</v>
+        <v>197</v>
       </c>
       <c r="B267" t="s">
-        <v>178</v>
+        <v>3</v>
       </c>
       <c r="C267" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="D267" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>186</v>
+        <v>99</v>
       </c>
       <c r="B268" t="s">
-        <v>178</v>
+        <v>20</v>
       </c>
       <c r="C268" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="D268" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>284</v>
+        <v>242</v>
       </c>
       <c r="B269" t="s">
-        <v>178</v>
+        <v>25</v>
       </c>
       <c r="C269" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D269" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>284</v>
+        <v>231</v>
       </c>
       <c r="B270" t="s">
-        <v>178</v>
+        <v>6</v>
       </c>
       <c r="C270" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D270" t="s">
         <v>320</v>
@@ -5169,13 +5169,13 @@
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>284</v>
+        <v>273</v>
       </c>
       <c r="B271" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C271" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="D271" t="s">
         <v>320</v>
@@ -5183,27 +5183,27 @@
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>21</v>
+        <v>273</v>
       </c>
       <c r="B272" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C272" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D272" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>113</v>
+        <v>38</v>
       </c>
       <c r="B273" t="s">
-        <v>9</v>
+        <v>51</v>
       </c>
       <c r="C273" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="D273" t="s">
         <v>320</v>
@@ -5211,13 +5211,13 @@
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>189</v>
+        <v>276</v>
       </c>
       <c r="B274" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C274" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="D274" t="s">
         <v>320</v>
@@ -5225,13 +5225,13 @@
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
-        <v>173</v>
+        <v>276</v>
       </c>
       <c r="B275" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C275" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D275" t="s">
         <v>320</v>
@@ -5239,7 +5239,7 @@
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
-        <v>101</v>
+        <v>276</v>
       </c>
       <c r="B276" t="s">
         <v>18</v>
@@ -5248,15 +5248,15 @@
         <v>19</v>
       </c>
       <c r="D276" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
-        <v>101</v>
+        <v>302</v>
       </c>
       <c r="B277" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="C277" t="s">
         <v>19</v>
@@ -5267,13 +5267,13 @@
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
-        <v>101</v>
+        <v>141</v>
       </c>
       <c r="B278" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C278" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="D278" t="s">
         <v>320</v>
@@ -5281,10 +5281,10 @@
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
-        <v>240</v>
+        <v>141</v>
       </c>
       <c r="B279" t="s">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="C279" t="s">
         <v>4</v>
@@ -5295,38 +5295,38 @@
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
-        <v>163</v>
+        <v>141</v>
       </c>
       <c r="B280" t="s">
         <v>51</v>
       </c>
       <c r="C280" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D280" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
-        <v>184</v>
+        <v>305</v>
       </c>
       <c r="B281" t="s">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="C281" t="s">
         <v>4</v>
       </c>
       <c r="D281" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
-        <v>140</v>
+        <v>24</v>
       </c>
       <c r="B282" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="C282" t="s">
         <v>4</v>
@@ -5337,7 +5337,7 @@
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
-        <v>140</v>
+        <v>247</v>
       </c>
       <c r="B283" t="s">
         <v>15</v>
@@ -5351,13 +5351,13 @@
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
-        <v>140</v>
+        <v>175</v>
       </c>
       <c r="B284" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="C284" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D284" t="s">
         <v>320</v>
@@ -5365,27 +5365,27 @@
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
-        <v>236</v>
+        <v>225</v>
       </c>
       <c r="B285" t="s">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="C285" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D285" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
-        <v>22</v>
+        <v>277</v>
       </c>
       <c r="B286" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="C286" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="D286" t="s">
         <v>320</v>
@@ -5393,27 +5393,27 @@
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
-        <v>84</v>
+        <v>270</v>
       </c>
       <c r="B287" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="C287" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D287" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
-        <v>84</v>
+        <v>137</v>
       </c>
       <c r="B288" t="s">
         <v>3</v>
       </c>
       <c r="C288" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="D288" t="s">
         <v>320</v>
@@ -5421,27 +5421,27 @@
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
-        <v>84</v>
+        <v>42</v>
       </c>
       <c r="B289" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="C289" t="s">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="D289" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
-        <v>144</v>
+        <v>253</v>
       </c>
       <c r="B290" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="C290" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D290" t="s">
         <v>320</v>
@@ -5449,13 +5449,13 @@
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
-        <v>155</v>
+        <v>104</v>
       </c>
       <c r="B291" t="s">
-        <v>20</v>
+        <v>51</v>
       </c>
       <c r="C291" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D291" t="s">
         <v>320</v>
@@ -5463,13 +5463,13 @@
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
-        <v>312</v>
+        <v>86</v>
       </c>
       <c r="B292" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C292" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="D292" t="s">
         <v>320</v>
@@ -5477,13 +5477,13 @@
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
-        <v>312</v>
+        <v>112</v>
       </c>
       <c r="B293" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C293" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="D293" t="s">
         <v>320</v>
@@ -5491,13 +5491,13 @@
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
-        <v>312</v>
+        <v>232</v>
       </c>
       <c r="B294" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="C294" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="D294" t="s">
         <v>320</v>
@@ -5505,13 +5505,13 @@
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
-        <v>262</v>
+        <v>232</v>
       </c>
       <c r="B295" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C295" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="D295" t="s">
         <v>320</v>
@@ -5519,10 +5519,10 @@
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
-        <v>262</v>
+        <v>48</v>
       </c>
       <c r="B296" t="s">
-        <v>178</v>
+        <v>25</v>
       </c>
       <c r="C296" t="s">
         <v>19</v>
@@ -5533,13 +5533,13 @@
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
-        <v>262</v>
+        <v>110</v>
       </c>
       <c r="B297" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="C297" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="D297" t="s">
         <v>320</v>
@@ -5547,13 +5547,13 @@
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
-        <v>238</v>
+        <v>52</v>
       </c>
       <c r="B298" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C298" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D298" t="s">
         <v>320</v>
@@ -5561,10 +5561,10 @@
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
-        <v>194</v>
+        <v>97</v>
       </c>
       <c r="B299" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="C299" t="s">
         <v>4</v>
@@ -5575,27 +5575,27 @@
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
-        <v>94</v>
+        <v>261</v>
       </c>
       <c r="B300" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="C300" t="s">
         <v>4</v>
       </c>
       <c r="D300" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
-        <v>148</v>
+        <v>228</v>
       </c>
       <c r="B301" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="C301" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D301" t="s">
         <v>320</v>
@@ -5603,13 +5603,13 @@
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
-        <v>148</v>
+        <v>29</v>
       </c>
       <c r="B302" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="C302" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D302" t="s">
         <v>320</v>
@@ -5617,13 +5617,13 @@
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
-        <v>148</v>
+        <v>98</v>
       </c>
       <c r="B303" t="s">
         <v>6</v>
       </c>
       <c r="C303" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D303" t="s">
         <v>320</v>
@@ -5631,27 +5631,27 @@
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
-        <v>268</v>
+        <v>230</v>
       </c>
       <c r="B304" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C304" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="D304" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
-        <v>248</v>
+        <v>230</v>
       </c>
       <c r="B305" t="s">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="C305" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D305" t="s">
         <v>320</v>
@@ -5659,13 +5659,13 @@
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
-        <v>202</v>
+        <v>230</v>
       </c>
       <c r="B306" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C306" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D306" t="s">
         <v>320</v>
@@ -5673,10 +5673,10 @@
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="B307" t="s">
-        <v>51</v>
+        <v>25</v>
       </c>
       <c r="C307" t="s">
         <v>13</v>
@@ -5687,27 +5687,27 @@
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
-        <v>297</v>
+        <v>17</v>
       </c>
       <c r="B308" t="s">
         <v>6</v>
       </c>
       <c r="C308" t="s">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="D308" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
-        <v>126</v>
+        <v>266</v>
       </c>
       <c r="B309" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C309" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="D309" t="s">
         <v>320</v>
@@ -5715,13 +5715,13 @@
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
-        <v>78</v>
+        <v>266</v>
       </c>
       <c r="B310" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="C310" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="D310" t="s">
         <v>320</v>
@@ -5729,27 +5729,27 @@
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
-        <v>199</v>
+        <v>294</v>
       </c>
       <c r="B311" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="C311" t="s">
         <v>4</v>
       </c>
       <c r="D311" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
-        <v>318</v>
+        <v>153</v>
       </c>
       <c r="B312" t="s">
-        <v>3</v>
+        <v>51</v>
       </c>
       <c r="C312" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="D312" t="s">
         <v>320</v>
@@ -5757,41 +5757,41 @@
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
-        <v>43</v>
+        <v>153</v>
       </c>
       <c r="B313" t="s">
         <v>15</v>
       </c>
       <c r="C313" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D313" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
-        <v>43</v>
+        <v>153</v>
       </c>
       <c r="B314" t="s">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="C314" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D314" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
-        <v>43</v>
+        <v>90</v>
       </c>
       <c r="B315" t="s">
-        <v>3</v>
+        <v>51</v>
       </c>
       <c r="C315" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D315" t="s">
         <v>320</v>
@@ -5799,13 +5799,13 @@
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B316" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C316" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="D316" t="s">
         <v>320</v>
@@ -5813,13 +5813,13 @@
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
-        <v>127</v>
+        <v>162</v>
       </c>
       <c r="B317" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C317" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D317" t="s">
         <v>320</v>
@@ -5827,41 +5827,41 @@
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
-        <v>127</v>
+        <v>284</v>
       </c>
       <c r="B318" t="s">
-        <v>15</v>
+        <v>178</v>
       </c>
       <c r="C318" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D318" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
-        <v>127</v>
+        <v>284</v>
       </c>
       <c r="B319" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C319" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="D319" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
-        <v>300</v>
+        <v>113</v>
       </c>
       <c r="B320" t="s">
         <v>9</v>
       </c>
       <c r="C320" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="D320" t="s">
         <v>320</v>
@@ -5869,13 +5869,13 @@
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
-        <v>223</v>
+        <v>189</v>
       </c>
       <c r="B321" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="C321" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="D321" t="s">
         <v>320</v>
@@ -5883,13 +5883,13 @@
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
-        <v>206</v>
+        <v>173</v>
       </c>
       <c r="B322" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="C322" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="D322" t="s">
         <v>320</v>
@@ -5897,13 +5897,13 @@
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
-        <v>245</v>
+        <v>101</v>
       </c>
       <c r="B323" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="C323" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="D323" t="s">
         <v>320</v>
@@ -5911,21 +5911,21 @@
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
-        <v>218</v>
+        <v>101</v>
       </c>
       <c r="B324" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="C324" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D324" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
-        <v>198</v>
+        <v>240</v>
       </c>
       <c r="B325" t="s">
         <v>51</v>
@@ -5939,13 +5939,13 @@
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
-        <v>27</v>
+        <v>140</v>
       </c>
       <c r="B326" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C326" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D326" t="s">
         <v>320</v>
@@ -5953,10 +5953,10 @@
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
-        <v>275</v>
+        <v>140</v>
       </c>
       <c r="B327" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C327" t="s">
         <v>4</v>
@@ -5967,13 +5967,13 @@
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="B328" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C328" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D328" t="s">
         <v>320</v>
@@ -5981,27 +5981,27 @@
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
-        <v>145</v>
+        <v>22</v>
       </c>
       <c r="B329" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="C329" t="s">
         <v>10</v>
       </c>
       <c r="D329" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
-        <v>145</v>
+        <v>84</v>
       </c>
       <c r="B330" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="C330" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D330" t="s">
         <v>320</v>
@@ -6009,13 +6009,13 @@
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
-        <v>251</v>
+        <v>144</v>
       </c>
       <c r="B331" t="s">
         <v>25</v>
       </c>
       <c r="C331" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D331" t="s">
         <v>320</v>
@@ -6023,13 +6023,13 @@
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
-        <v>119</v>
+        <v>155</v>
       </c>
       <c r="B332" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C332" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D332" t="s">
         <v>320</v>
@@ -6037,13 +6037,13 @@
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
-        <v>44</v>
+        <v>312</v>
       </c>
       <c r="B333" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C333" t="s">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="D333" t="s">
         <v>320</v>
@@ -6051,13 +6051,13 @@
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
-        <v>107</v>
+        <v>312</v>
       </c>
       <c r="B334" t="s">
         <v>25</v>
       </c>
       <c r="C334" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="D334" t="s">
         <v>320</v>
@@ -6065,24 +6065,24 @@
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
-        <v>280</v>
+        <v>312</v>
       </c>
       <c r="B335" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="C335" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D335" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
-        <v>280</v>
+        <v>262</v>
       </c>
       <c r="B336" t="s">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="C336" t="s">
         <v>4</v>
@@ -6093,10 +6093,10 @@
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
-        <v>280</v>
+        <v>262</v>
       </c>
       <c r="B337" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="C337" t="s">
         <v>19</v>
@@ -6107,10 +6107,10 @@
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
-        <v>182</v>
+        <v>262</v>
       </c>
       <c r="B338" t="s">
-        <v>33</v>
+        <v>178</v>
       </c>
       <c r="C338" t="s">
         <v>19</v>
@@ -6121,13 +6121,13 @@
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
-        <v>103</v>
+        <v>238</v>
       </c>
       <c r="B339" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C339" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="D339" t="s">
         <v>320</v>
@@ -6135,13 +6135,13 @@
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
-        <v>65</v>
+        <v>194</v>
       </c>
       <c r="B340" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C340" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="D340" t="s">
         <v>320</v>
@@ -6149,13 +6149,13 @@
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
-        <v>45</v>
+        <v>148</v>
       </c>
       <c r="B341" t="s">
-        <v>39</v>
+        <v>6</v>
       </c>
       <c r="C341" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D341" t="s">
         <v>320</v>
@@ -6163,10 +6163,10 @@
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
-        <v>179</v>
+        <v>148</v>
       </c>
       <c r="B342" t="s">
-        <v>6</v>
+        <v>51</v>
       </c>
       <c r="C342" t="s">
         <v>4</v>
@@ -6177,27 +6177,27 @@
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
-        <v>285</v>
+        <v>148</v>
       </c>
       <c r="B343" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C343" t="s">
         <v>4</v>
       </c>
       <c r="D343" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
-        <v>285</v>
+        <v>248</v>
       </c>
       <c r="B344" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="C344" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="D344" t="s">
         <v>320</v>
@@ -6205,27 +6205,27 @@
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
-        <v>285</v>
+        <v>202</v>
       </c>
       <c r="B345" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="C345" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="D345" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
-        <v>191</v>
+        <v>111</v>
       </c>
       <c r="B346" t="s">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="C346" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="D346" t="s">
         <v>320</v>
@@ -6233,41 +6233,41 @@
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
-        <v>160</v>
+        <v>126</v>
       </c>
       <c r="B347" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="C347" t="s">
         <v>7</v>
       </c>
       <c r="D347" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
-        <v>274</v>
+        <v>78</v>
       </c>
       <c r="B348" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="C348" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="D348" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
-        <v>291</v>
+        <v>318</v>
       </c>
       <c r="B349" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="C349" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="D349" t="s">
         <v>320</v>
@@ -6275,13 +6275,13 @@
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
-        <v>200</v>
+        <v>43</v>
       </c>
       <c r="B350" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="C350" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D350" t="s">
         <v>320</v>
@@ -6289,55 +6289,55 @@
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
-        <v>307</v>
+        <v>89</v>
       </c>
       <c r="B351" t="s">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="C351" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="D351" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
-        <v>219</v>
+        <v>127</v>
       </c>
       <c r="B352" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C352" t="s">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="D352" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
-        <v>252</v>
+        <v>300</v>
       </c>
       <c r="B353" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C353" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="D353" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
-        <v>58</v>
+        <v>223</v>
       </c>
       <c r="B354" t="s">
-        <v>39</v>
+        <v>3</v>
       </c>
       <c r="C354" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="D354" t="s">
         <v>320</v>
@@ -6345,55 +6345,55 @@
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
-        <v>292</v>
+        <v>206</v>
       </c>
       <c r="B355" t="s">
         <v>39</v>
       </c>
       <c r="C355" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="D355" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
-        <v>61</v>
+        <v>245</v>
       </c>
       <c r="B356" t="s">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="C356" t="s">
         <v>4</v>
       </c>
       <c r="D356" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="B357" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C357" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D357" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
-        <v>260</v>
+        <v>27</v>
       </c>
       <c r="B358" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C358" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D358" t="s">
         <v>320</v>
@@ -6401,13 +6401,13 @@
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
-        <v>260</v>
+        <v>275</v>
       </c>
       <c r="B359" t="s">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="C359" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="D359" t="s">
         <v>320</v>
@@ -6415,13 +6415,13 @@
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
-        <v>260</v>
+        <v>145</v>
       </c>
       <c r="B360" t="s">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="C360" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D360" t="s">
         <v>320</v>
@@ -6429,13 +6429,13 @@
     </row>
     <row r="361" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="B361" t="s">
-        <v>51</v>
+        <v>25</v>
       </c>
       <c r="C361" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D361" t="s">
         <v>320</v>
@@ -6443,13 +6443,13 @@
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
-        <v>46</v>
+        <v>251</v>
       </c>
       <c r="B362" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="C362" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D362" t="s">
         <v>320</v>
@@ -6457,13 +6457,13 @@
     </row>
     <row r="363" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
-        <v>68</v>
+        <v>119</v>
       </c>
       <c r="B363" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="C363" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="D363" t="s">
         <v>320</v>
@@ -6471,108 +6471,108 @@
     </row>
     <row r="364" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
-        <v>258</v>
+        <v>44</v>
       </c>
       <c r="B364" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="C364" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="D364" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
-        <v>296</v>
+        <v>107</v>
       </c>
       <c r="B365" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C365" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="D365" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="366" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
-        <v>296</v>
+        <v>280</v>
       </c>
       <c r="B366" t="s">
-        <v>178</v>
+        <v>51</v>
       </c>
       <c r="C366" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="D366" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="367" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
-        <v>296</v>
+        <v>280</v>
       </c>
       <c r="B367" t="s">
-        <v>178</v>
+        <v>33</v>
       </c>
       <c r="C367" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="D367" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
-        <v>227</v>
+        <v>182</v>
       </c>
       <c r="B368" t="s">
-        <v>178</v>
+        <v>33</v>
       </c>
       <c r="C368" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D368" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="369" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
-        <v>287</v>
+        <v>103</v>
       </c>
       <c r="B369" t="s">
-        <v>178</v>
+        <v>33</v>
       </c>
       <c r="C369" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="D369" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="370" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
-        <v>23</v>
+        <v>65</v>
       </c>
       <c r="B370" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="C370" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="D370" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="371" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
-        <v>237</v>
+        <v>45</v>
       </c>
       <c r="B371" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="C371" t="s">
         <v>4</v>
@@ -6583,27 +6583,27 @@
     </row>
     <row r="372" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
-        <v>93</v>
+        <v>179</v>
       </c>
       <c r="B372" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C372" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="D372" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="373" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
-        <v>164</v>
+        <v>285</v>
       </c>
       <c r="B373" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C373" t="s">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="D373" t="s">
         <v>320</v>
@@ -6611,13 +6611,13 @@
     </row>
     <row r="374" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B374" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="C374" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D374" t="s">
         <v>320</v>
@@ -6625,13 +6625,13 @@
     </row>
     <row r="375" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
-        <v>128</v>
+        <v>291</v>
       </c>
       <c r="B375" t="s">
         <v>18</v>
       </c>
       <c r="C375" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="D375" t="s">
         <v>320</v>
@@ -6639,13 +6639,13 @@
     </row>
     <row r="376" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
-        <v>298</v>
+        <v>200</v>
       </c>
       <c r="B376" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C376" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="D376" t="s">
         <v>320</v>
@@ -6653,27 +6653,27 @@
     </row>
     <row r="377" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
-        <v>211</v>
+        <v>58</v>
       </c>
       <c r="B377" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="C377" t="s">
         <v>4</v>
       </c>
       <c r="D377" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="378" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
-        <v>117</v>
+        <v>260</v>
       </c>
       <c r="B378" t="s">
-        <v>51</v>
+        <v>15</v>
       </c>
       <c r="C378" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D378" t="s">
         <v>320</v>
@@ -6681,13 +6681,13 @@
     </row>
     <row r="379" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
-        <v>63</v>
+        <v>260</v>
       </c>
       <c r="B379" t="s">
         <v>51</v>
       </c>
       <c r="C379" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D379" t="s">
         <v>320</v>
@@ -6695,7 +6695,7 @@
     </row>
     <row r="380" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
-        <v>249</v>
+        <v>260</v>
       </c>
       <c r="B380" t="s">
         <v>51</v>
@@ -6704,15 +6704,15 @@
         <v>19</v>
       </c>
       <c r="D380" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="381" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
-        <v>85</v>
+        <v>136</v>
       </c>
       <c r="B381" t="s">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="C381" t="s">
         <v>4</v>
@@ -6723,10 +6723,10 @@
     </row>
     <row r="382" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
-        <v>188</v>
+        <v>46</v>
       </c>
       <c r="B382" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C382" t="s">
         <v>4</v>
@@ -6737,27 +6737,27 @@
     </row>
     <row r="383" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
-        <v>188</v>
+        <v>68</v>
       </c>
       <c r="B383" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C383" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D383" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="384" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
-        <v>188</v>
+        <v>237</v>
       </c>
       <c r="B384" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="C384" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D384" t="s">
         <v>320</v>
@@ -6765,27 +6765,27 @@
     </row>
     <row r="385" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
-        <v>135</v>
+        <v>164</v>
       </c>
       <c r="B385" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="C385" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="D385" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="386" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
-        <v>255</v>
+        <v>190</v>
       </c>
       <c r="B386" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="C386" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="D386" t="s">
         <v>320</v>
@@ -6793,38 +6793,38 @@
     </row>
     <row r="387" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
-        <v>56</v>
+        <v>128</v>
       </c>
       <c r="B387" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="C387" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="D387" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="388" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
-        <v>57</v>
+        <v>298</v>
       </c>
       <c r="B388" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C388" t="s">
         <v>4</v>
       </c>
       <c r="D388" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="389" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
-        <v>290</v>
+        <v>117</v>
       </c>
       <c r="B389" t="s">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="C389" t="s">
         <v>10</v>
@@ -6835,24 +6835,24 @@
     </row>
     <row r="390" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
-        <v>176</v>
+        <v>63</v>
       </c>
       <c r="B390" t="s">
-        <v>20</v>
+        <v>51</v>
       </c>
       <c r="C390" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D390" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="391" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
-        <v>176</v>
+        <v>85</v>
       </c>
       <c r="B391" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C391" t="s">
         <v>4</v>
@@ -6863,13 +6863,13 @@
     </row>
     <row r="392" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
-        <v>176</v>
+        <v>188</v>
       </c>
       <c r="B392" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="C392" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D392" t="s">
         <v>320</v>
@@ -6877,13 +6877,13 @@
     </row>
     <row r="393" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
-        <v>123</v>
+        <v>188</v>
       </c>
       <c r="B393" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C393" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="D393" t="s">
         <v>320</v>
@@ -6891,13 +6891,13 @@
     </row>
     <row r="394" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
-        <v>82</v>
+        <v>255</v>
       </c>
       <c r="B394" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="C394" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="D394" t="s">
         <v>320</v>
@@ -6905,13 +6905,13 @@
     </row>
     <row r="395" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
-        <v>213</v>
+        <v>290</v>
       </c>
       <c r="B395" t="s">
-        <v>178</v>
+        <v>25</v>
       </c>
       <c r="C395" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D395" t="s">
         <v>320</v>
@@ -6919,41 +6919,41 @@
     </row>
     <row r="396" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
-        <v>213</v>
+        <v>176</v>
       </c>
       <c r="B396" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C396" t="s">
         <v>4</v>
       </c>
       <c r="D396" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="397" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
-        <v>213</v>
+        <v>176</v>
       </c>
       <c r="B397" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C397" t="s">
         <v>4</v>
       </c>
       <c r="D397" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="398" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
-        <v>26</v>
+        <v>123</v>
       </c>
       <c r="B398" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C398" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="D398" t="s">
         <v>320</v>
@@ -6961,13 +6961,13 @@
     </row>
     <row r="399" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
-        <v>26</v>
+        <v>82</v>
       </c>
       <c r="B399" t="s">
         <v>9</v>
       </c>
       <c r="C399" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="D399" t="s">
         <v>320</v>
@@ -6975,27 +6975,27 @@
     </row>
     <row r="400" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
-        <v>26</v>
+        <v>213</v>
       </c>
       <c r="B400" t="s">
-        <v>9</v>
+        <v>178</v>
       </c>
       <c r="C400" t="s">
         <v>7</v>
       </c>
       <c r="D400" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="401" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
-        <v>207</v>
+        <v>26</v>
       </c>
       <c r="B401" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C401" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="D401" t="s">
         <v>320</v>
@@ -7003,10 +7003,10 @@
     </row>
     <row r="402" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
-        <v>118</v>
+        <v>26</v>
       </c>
       <c r="B402" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="C402" t="s">
         <v>4</v>
@@ -7017,13 +7017,13 @@
     </row>
     <row r="403" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
-        <v>105</v>
+        <v>207</v>
       </c>
       <c r="B403" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C403" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="D403" t="s">
         <v>320</v>
@@ -7031,27 +7031,27 @@
     </row>
     <row r="404" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
-        <v>196</v>
+        <v>118</v>
       </c>
       <c r="B404" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C404" t="s">
         <v>4</v>
       </c>
       <c r="D404" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="405" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
-        <v>187</v>
+        <v>105</v>
       </c>
       <c r="B405" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C405" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D405" t="s">
         <v>320</v>
@@ -7065,10 +7065,10 @@
         <v>25</v>
       </c>
       <c r="C406" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="D406" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="407" spans="1:4" x14ac:dyDescent="0.25">

--- a/testaktivitet.xlsx
+++ b/testaktivitet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andran0803\Desktop\activitySorter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1822C8B8-AA67-4951-A4A5-3F3B29DB5C5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73CB7E98-E0B7-470E-AC1B-9F17ADEF173B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="testaktivitet" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="testaktivitet">testaktivitet!$A$1:$C$408</definedName>
+    <definedName name="testaktivitet">testaktivitet!$A$1:$C$409</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1632" uniqueCount="324">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1636" uniqueCount="324">
   <si>
     <t>Fullt navn</t>
   </si>
@@ -1071,10 +1071,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{30E01473-62A6-46D6-909C-C3B8FA180CA6}" name="Tabell1" displayName="Tabell1" ref="A1:D408" totalsRowShown="0">
-  <autoFilter ref="A1:D408" xr:uid="{30E01473-62A6-46D6-909C-C3B8FA180CA6}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D408">
-    <sortCondition ref="D1:D408"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{30E01473-62A6-46D6-909C-C3B8FA180CA6}" name="Tabell1" displayName="Tabell1" ref="A1:D409" totalsRowShown="0">
+  <autoFilter ref="A1:D409" xr:uid="{30E01473-62A6-46D6-909C-C3B8FA180CA6}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D409">
+    <sortCondition ref="A1:A409"/>
   </sortState>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{B54A823D-7219-4B0A-9B3D-D5BFC25C5D11}" name="Fullt navn"/>
@@ -1373,10 +1373,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D408"/>
+  <dimension ref="A1:D409"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" topLeftCell="A75" workbookViewId="0">
+      <selection activeCell="A86" sqref="A86:XFD86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1403,21 +1403,21 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>34</v>
+        <v>299</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>75</v>
+        <v>299</v>
       </c>
       <c r="B3" t="s">
         <v>51</v>
@@ -1426,32 +1426,32 @@
         <v>4</v>
       </c>
       <c r="D3" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>35</v>
+        <v>299</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>51</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D4" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>120</v>
+        <v>34</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
         <v>321</v>
@@ -1459,69 +1459,69 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>120</v>
+        <v>185</v>
       </c>
       <c r="B6" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D6" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>157</v>
+        <v>289</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D7" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>239</v>
+        <v>67</v>
       </c>
       <c r="B8" t="s">
         <v>3</v>
       </c>
       <c r="C8" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="D8" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>5</v>
+        <v>66</v>
       </c>
       <c r="B9" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C9" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D9" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B10" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C10" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="D10" t="s">
         <v>321</v>
@@ -1529,13 +1529,13 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="C11" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="D11" t="s">
         <v>321</v>
@@ -1543,83 +1543,83 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>257</v>
+        <v>314</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C12" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="D12" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>257</v>
+        <v>314</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C13" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="D13" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>257</v>
+        <v>314</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C14" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="D14" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="B15" t="s">
-        <v>51</v>
+        <v>3</v>
       </c>
       <c r="C15" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D15" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>132</v>
+        <v>73</v>
       </c>
       <c r="B16" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="C16" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>152</v>
+        <v>120</v>
       </c>
       <c r="B17" t="s">
-        <v>39</v>
+        <v>3</v>
       </c>
       <c r="C17" t="s">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="D17" t="s">
         <v>321</v>
@@ -1627,13 +1627,13 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>87</v>
+        <v>120</v>
       </c>
       <c r="B18" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C18" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D18" t="s">
         <v>321</v>
@@ -1641,27 +1641,27 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>143</v>
+        <v>120</v>
       </c>
       <c r="B19" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C19" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="D19" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>222</v>
+        <v>157</v>
       </c>
       <c r="B20" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C20" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D20" t="s">
         <v>321</v>
@@ -1669,55 +1669,55 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>269</v>
+        <v>157</v>
       </c>
       <c r="B21" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C21" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>83</v>
+        <v>157</v>
       </c>
       <c r="B22" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="C22" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>106</v>
+        <v>149</v>
       </c>
       <c r="B23" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>264</v>
+        <v>239</v>
       </c>
       <c r="B24" t="s">
-        <v>51</v>
+        <v>3</v>
       </c>
       <c r="C24" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D24" t="s">
         <v>321</v>
@@ -1725,27 +1725,27 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>264</v>
+        <v>183</v>
       </c>
       <c r="B25" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="C25" t="s">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="D25" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>80</v>
+        <v>5</v>
       </c>
       <c r="B26" t="s">
         <v>6</v>
       </c>
       <c r="C26" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D26" t="s">
         <v>321</v>
@@ -1753,10 +1753,10 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>308</v>
+        <v>74</v>
       </c>
       <c r="B27" t="s">
-        <v>178</v>
+        <v>33</v>
       </c>
       <c r="C27" t="s">
         <v>13</v>
@@ -1767,27 +1767,27 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>134</v>
+        <v>76</v>
       </c>
       <c r="B28" t="s">
-        <v>18</v>
+        <v>51</v>
       </c>
       <c r="C28" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="D28" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>256</v>
+        <v>62</v>
       </c>
       <c r="B29" t="s">
         <v>18</v>
       </c>
       <c r="C29" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="D29" t="s">
         <v>321</v>
@@ -1795,97 +1795,97 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>210</v>
+        <v>62</v>
       </c>
       <c r="B30" t="s">
         <v>18</v>
       </c>
       <c r="C30" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="D30" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>265</v>
+        <v>62</v>
       </c>
       <c r="B31" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C31" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D31" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>265</v>
+        <v>142</v>
       </c>
       <c r="B32" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C32" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D32" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>47</v>
+        <v>180</v>
       </c>
       <c r="B33" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="C33" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="D33" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>102</v>
+        <v>180</v>
       </c>
       <c r="B34" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C34" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D34" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>28</v>
+        <v>180</v>
       </c>
       <c r="B35" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C35" t="s">
         <v>4</v>
       </c>
       <c r="D35" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>72</v>
+        <v>257</v>
       </c>
       <c r="B36" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C36" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D36" t="s">
         <v>321</v>
@@ -1893,10 +1893,10 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>154</v>
+        <v>257</v>
       </c>
       <c r="B37" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="C37" t="s">
         <v>4</v>
@@ -1907,13 +1907,13 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>146</v>
+        <v>257</v>
       </c>
       <c r="B38" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="C38" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D38" t="s">
         <v>321</v>
@@ -1921,13 +1921,13 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>217</v>
+        <v>125</v>
       </c>
       <c r="B39" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="C39" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="D39" t="s">
         <v>321</v>
@@ -1935,13 +1935,13 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>244</v>
+        <v>132</v>
       </c>
       <c r="B40" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="C40" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D40" t="s">
         <v>321</v>
@@ -1949,55 +1949,55 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>116</v>
+        <v>132</v>
       </c>
       <c r="B41" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="C41" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="D41" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>100</v>
+        <v>132</v>
       </c>
       <c r="B42" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="C42" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D42" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>181</v>
+        <v>131</v>
       </c>
       <c r="B43" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="C43" t="s">
         <v>13</v>
       </c>
       <c r="D43" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>70</v>
+        <v>152</v>
       </c>
       <c r="B44" t="s">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="C44" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="D44" t="s">
         <v>321</v>
@@ -2005,13 +2005,13 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>288</v>
+        <v>87</v>
       </c>
       <c r="B45" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C45" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="D45" t="s">
         <v>321</v>
@@ -2019,49 +2019,49 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>96</v>
+        <v>172</v>
       </c>
       <c r="B46" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="C46" t="s">
         <v>4</v>
       </c>
       <c r="D46" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>130</v>
+        <v>71</v>
       </c>
       <c r="B47" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="C47" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D47" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="B48" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C48" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="D48" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>203</v>
+        <v>71</v>
       </c>
       <c r="B49" t="s">
         <v>25</v>
@@ -2070,29 +2070,29 @@
         <v>4</v>
       </c>
       <c r="D49" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>30</v>
+        <v>301</v>
       </c>
       <c r="B50" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="C50" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D50" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>281</v>
+        <v>143</v>
       </c>
       <c r="B51" t="s">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="C51" t="s">
         <v>19</v>
@@ -2103,10 +2103,10 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>271</v>
+        <v>222</v>
       </c>
       <c r="B52" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="C52" t="s">
         <v>4</v>
@@ -2117,13 +2117,13 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>208</v>
+        <v>269</v>
       </c>
       <c r="B53" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="C53" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D53" t="s">
         <v>321</v>
@@ -2131,69 +2131,69 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>243</v>
+        <v>55</v>
       </c>
       <c r="B54" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="C54" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="D54" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>229</v>
+        <v>69</v>
       </c>
       <c r="B55" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="C55" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D55" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>91</v>
+        <v>293</v>
       </c>
       <c r="B56" t="s">
         <v>18</v>
       </c>
       <c r="C56" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="D56" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>36</v>
+        <v>79</v>
       </c>
       <c r="B57" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="C57" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D57" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>36</v>
+        <v>83</v>
       </c>
       <c r="B58" t="s">
-        <v>6</v>
+        <v>39</v>
       </c>
       <c r="C58" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D58" t="s">
         <v>321</v>
@@ -2201,13 +2201,13 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>37</v>
+        <v>106</v>
       </c>
       <c r="B59" t="s">
         <v>33</v>
       </c>
       <c r="C59" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D59" t="s">
         <v>321</v>
@@ -2215,41 +2215,41 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>121</v>
+        <v>214</v>
       </c>
       <c r="B60" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="C60" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="D60" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B61" t="s">
-        <v>51</v>
+        <v>15</v>
       </c>
       <c r="C61" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="D61" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>295</v>
+        <v>264</v>
       </c>
       <c r="B62" t="s">
-        <v>6</v>
+        <v>51</v>
       </c>
       <c r="C62" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D62" t="s">
         <v>321</v>
@@ -2257,10 +2257,10 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>295</v>
+        <v>264</v>
       </c>
       <c r="B63" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="C63" t="s">
         <v>4</v>
@@ -2271,27 +2271,27 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>88</v>
+        <v>264</v>
       </c>
       <c r="B64" t="s">
-        <v>178</v>
+        <v>51</v>
       </c>
       <c r="C64" t="s">
         <v>4</v>
       </c>
       <c r="D64" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>286</v>
+        <v>80</v>
       </c>
       <c r="B65" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="C65" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D65" t="s">
         <v>321</v>
@@ -2299,55 +2299,55 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>263</v>
+        <v>80</v>
       </c>
       <c r="B66" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C66" t="s">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="D66" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="B67" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="C67" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D67" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>215</v>
+        <v>241</v>
       </c>
       <c r="B68" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="C68" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="D68" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>220</v>
+        <v>308</v>
       </c>
       <c r="B69" t="s">
-        <v>20</v>
+        <v>178</v>
       </c>
       <c r="C69" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D69" t="s">
         <v>321</v>
@@ -2355,94 +2355,94 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>124</v>
+        <v>308</v>
       </c>
       <c r="B70" t="s">
-        <v>9</v>
+        <v>178</v>
       </c>
       <c r="C70" t="s">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="D70" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>233</v>
+        <v>308</v>
       </c>
       <c r="B71" t="s">
-        <v>25</v>
+        <v>178</v>
       </c>
       <c r="C71" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D71" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>273</v>
+        <v>177</v>
       </c>
       <c r="B72" t="s">
         <v>178</v>
       </c>
       <c r="C72" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D72" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>11</v>
+        <v>168</v>
       </c>
       <c r="B73" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="C73" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D73" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>38</v>
+        <v>309</v>
       </c>
       <c r="B74" t="s">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="C74" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="D74" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>38</v>
+        <v>322</v>
       </c>
       <c r="B75" t="s">
-        <v>51</v>
+        <v>9</v>
       </c>
       <c r="C75" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="D75" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>174</v>
+        <v>134</v>
       </c>
       <c r="B76" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="C76" t="s">
         <v>19</v>
@@ -2453,27 +2453,27 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>122</v>
+        <v>14</v>
       </c>
       <c r="B77" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C77" t="s">
         <v>4</v>
       </c>
       <c r="D77" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>316</v>
+        <v>256</v>
       </c>
       <c r="B78" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="C78" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="D78" t="s">
         <v>321</v>
@@ -2481,13 +2481,13 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>41</v>
+        <v>210</v>
       </c>
       <c r="B79" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C79" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="D79" t="s">
         <v>321</v>
@@ -2495,69 +2495,69 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>151</v>
+        <v>311</v>
       </c>
       <c r="B80" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C80" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="D80" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>303</v>
+        <v>159</v>
       </c>
       <c r="B81" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="C81" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D81" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>232</v>
+        <v>159</v>
       </c>
       <c r="B82" t="s">
-        <v>18</v>
+        <v>51</v>
       </c>
       <c r="C82" t="s">
         <v>4</v>
       </c>
       <c r="D82" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>254</v>
+        <v>159</v>
       </c>
       <c r="B83" t="s">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="C83" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="D83" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>317</v>
+        <v>265</v>
       </c>
       <c r="B84" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="C84" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="D84" t="s">
         <v>321</v>
@@ -2565,13 +2565,13 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>306</v>
+        <v>265</v>
       </c>
       <c r="B85" t="s">
-        <v>51</v>
+        <v>15</v>
       </c>
       <c r="C85" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="D85" t="s">
         <v>321</v>
@@ -2579,41 +2579,41 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>147</v>
+        <v>265</v>
       </c>
       <c r="B86" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="C86" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D86" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="B87" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C87" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D87" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>266</v>
+        <v>47</v>
       </c>
       <c r="B88" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="C88" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D88" t="s">
         <v>321</v>
@@ -2621,27 +2621,27 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>294</v>
+        <v>156</v>
       </c>
       <c r="B89" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="C89" t="s">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="D89" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>294</v>
+        <v>102</v>
       </c>
       <c r="B90" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="C90" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D90" t="s">
         <v>321</v>
@@ -2649,24 +2649,24 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>209</v>
+        <v>2</v>
       </c>
       <c r="B91" t="s">
-        <v>39</v>
+        <v>3</v>
       </c>
       <c r="C91" t="s">
         <v>4</v>
       </c>
       <c r="D91" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>138</v>
+        <v>28</v>
       </c>
       <c r="B92" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="C92" t="s">
         <v>4</v>
@@ -2677,27 +2677,27 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>166</v>
+        <v>201</v>
       </c>
       <c r="B93" t="s">
-        <v>51</v>
+        <v>25</v>
       </c>
       <c r="C93" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="D93" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>109</v>
+        <v>72</v>
       </c>
       <c r="B94" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="C94" t="s">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="D94" t="s">
         <v>321</v>
@@ -2705,38 +2705,38 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>205</v>
+        <v>129</v>
       </c>
       <c r="B95" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="C95" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D95" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>133</v>
+        <v>204</v>
       </c>
       <c r="B96" t="s">
-        <v>178</v>
+        <v>25</v>
       </c>
       <c r="C96" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="D96" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>186</v>
+        <v>154</v>
       </c>
       <c r="B97" t="s">
-        <v>178</v>
+        <v>6</v>
       </c>
       <c r="C97" t="s">
         <v>4</v>
@@ -2747,41 +2747,41 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>284</v>
+        <v>8</v>
       </c>
       <c r="B98" t="s">
-        <v>178</v>
+        <v>9</v>
       </c>
       <c r="C98" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D98" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>21</v>
+        <v>304</v>
       </c>
       <c r="B99" t="s">
-        <v>18</v>
+        <v>178</v>
       </c>
       <c r="C99" t="s">
         <v>4</v>
       </c>
       <c r="D99" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>101</v>
+        <v>146</v>
       </c>
       <c r="B100" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C100" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="D100" t="s">
         <v>321</v>
@@ -2789,13 +2789,13 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>163</v>
+        <v>217</v>
       </c>
       <c r="B101" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="C101" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D101" t="s">
         <v>321</v>
@@ -2803,13 +2803,13 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>184</v>
+        <v>244</v>
       </c>
       <c r="B102" t="s">
         <v>51</v>
       </c>
       <c r="C102" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="D102" t="s">
         <v>321</v>
@@ -2817,52 +2817,52 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>236</v>
+        <v>16</v>
       </c>
       <c r="B103" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C103" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D103" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="B104" t="s">
-        <v>20</v>
+        <v>51</v>
       </c>
       <c r="C104" t="s">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="D104" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>84</v>
+        <v>161</v>
       </c>
       <c r="B105" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="C105" t="s">
         <v>10</v>
       </c>
       <c r="D105" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>94</v>
+        <v>116</v>
       </c>
       <c r="B106" t="s">
-        <v>51</v>
+        <v>6</v>
       </c>
       <c r="C106" t="s">
         <v>4</v>
@@ -2873,41 +2873,41 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>268</v>
+        <v>235</v>
       </c>
       <c r="B107" t="s">
         <v>18</v>
       </c>
       <c r="C107" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="D107" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>297</v>
+        <v>150</v>
       </c>
       <c r="B108" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C108" t="s">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="D108" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>199</v>
+        <v>100</v>
       </c>
       <c r="B109" t="s">
-        <v>18</v>
+        <v>51</v>
       </c>
       <c r="C109" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D109" t="s">
         <v>321</v>
@@ -2915,94 +2915,94 @@
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>43</v>
+        <v>100</v>
       </c>
       <c r="B110" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="C110" t="s">
         <v>10</v>
       </c>
       <c r="D110" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>43</v>
+        <v>100</v>
       </c>
       <c r="B111" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C111" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D111" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>127</v>
+        <v>81</v>
       </c>
       <c r="B112" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C112" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D112" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>127</v>
+        <v>250</v>
       </c>
       <c r="B113" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C113" t="s">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="D113" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>218</v>
+        <v>250</v>
       </c>
       <c r="B114" t="s">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="C114" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D114" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>145</v>
+        <v>250</v>
       </c>
       <c r="B115" t="s">
         <v>18</v>
       </c>
       <c r="C115" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D115" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>280</v>
+        <v>181</v>
       </c>
       <c r="B116" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="C116" t="s">
         <v>13</v>
@@ -3013,27 +3013,27 @@
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>285</v>
+        <v>221</v>
       </c>
       <c r="B117" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C117" t="s">
         <v>4</v>
       </c>
       <c r="D117" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>285</v>
+        <v>70</v>
       </c>
       <c r="B118" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="C118" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="D118" t="s">
         <v>321</v>
@@ -3041,13 +3041,13 @@
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>160</v>
+        <v>288</v>
       </c>
       <c r="B119" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C119" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="D119" t="s">
         <v>321</v>
@@ -3055,80 +3055,80 @@
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>274</v>
+        <v>288</v>
       </c>
       <c r="B120" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C120" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D120" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>307</v>
+        <v>288</v>
       </c>
       <c r="B121" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="C121" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D121" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>219</v>
+        <v>53</v>
       </c>
       <c r="B122" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C122" t="s">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="D122" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>252</v>
+        <v>313</v>
       </c>
       <c r="B123" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C123" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D123" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>292</v>
+        <v>77</v>
       </c>
       <c r="B124" t="s">
-        <v>39</v>
+        <v>3</v>
       </c>
       <c r="C124" t="s">
         <v>4</v>
       </c>
       <c r="D124" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>61</v>
+        <v>96</v>
       </c>
       <c r="B125" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="C125" t="s">
         <v>4</v>
@@ -3139,13 +3139,13 @@
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>195</v>
+        <v>130</v>
       </c>
       <c r="B126" t="s">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="C126" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D126" t="s">
         <v>321</v>
@@ -3153,69 +3153,69 @@
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>258</v>
+        <v>130</v>
       </c>
       <c r="B127" t="s">
-        <v>6</v>
+        <v>51</v>
       </c>
       <c r="C127" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="D127" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>296</v>
+        <v>130</v>
       </c>
       <c r="B128" t="s">
-        <v>178</v>
+        <v>33</v>
       </c>
       <c r="C128" t="s">
         <v>4</v>
       </c>
       <c r="D128" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>296</v>
+        <v>193</v>
       </c>
       <c r="B129" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="C129" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D129" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>296</v>
+        <v>315</v>
       </c>
       <c r="B130" t="s">
-        <v>178</v>
+        <v>18</v>
       </c>
       <c r="C130" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D130" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>227</v>
+        <v>59</v>
       </c>
       <c r="B131" t="s">
-        <v>178</v>
+        <v>18</v>
       </c>
       <c r="C131" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D131" t="s">
         <v>321</v>
@@ -3223,80 +3223,80 @@
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>287</v>
+        <v>59</v>
       </c>
       <c r="B132" t="s">
-        <v>178</v>
+        <v>18</v>
       </c>
       <c r="C132" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="D132" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>23</v>
+        <v>59</v>
       </c>
       <c r="B133" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="C133" t="s">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="D133" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>93</v>
+        <v>279</v>
       </c>
       <c r="B134" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C134" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D134" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>211</v>
+        <v>139</v>
       </c>
       <c r="B135" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C135" t="s">
         <v>4</v>
       </c>
       <c r="D135" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>249</v>
+        <v>234</v>
       </c>
       <c r="B136" t="s">
-        <v>51</v>
+        <v>25</v>
       </c>
       <c r="C136" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="D136" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>188</v>
+        <v>203</v>
       </c>
       <c r="B137" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="C137" t="s">
         <v>4</v>
@@ -3307,13 +3307,13 @@
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>135</v>
+        <v>30</v>
       </c>
       <c r="B138" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C138" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="D138" t="s">
         <v>321</v>
@@ -3321,27 +3321,27 @@
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>56</v>
+        <v>282</v>
       </c>
       <c r="B139" t="s">
-        <v>3</v>
+        <v>51</v>
       </c>
       <c r="C139" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="D139" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>57</v>
+        <v>281</v>
       </c>
       <c r="B140" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="C140" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="D140" t="s">
         <v>321</v>
@@ -3349,10 +3349,10 @@
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>176</v>
+        <v>271</v>
       </c>
       <c r="B141" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="C141" t="s">
         <v>4</v>
@@ -3363,38 +3363,38 @@
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>213</v>
+        <v>271</v>
       </c>
       <c r="B142" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="C142" t="s">
         <v>4</v>
       </c>
       <c r="D142" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>213</v>
+        <v>271</v>
       </c>
       <c r="B143" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C143" t="s">
         <v>4</v>
       </c>
       <c r="D143" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>26</v>
+        <v>208</v>
       </c>
       <c r="B144" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="C144" t="s">
         <v>7</v>
@@ -3405,69 +3405,69 @@
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>196</v>
+        <v>208</v>
       </c>
       <c r="B145" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="C145" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="D145" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>187</v>
+        <v>208</v>
       </c>
       <c r="B146" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C146" t="s">
         <v>19</v>
       </c>
       <c r="D146" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>299</v>
+        <v>243</v>
       </c>
       <c r="B147" t="s">
-        <v>51</v>
+        <v>25</v>
       </c>
       <c r="C147" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="D147" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>299</v>
+        <v>229</v>
       </c>
       <c r="B148" t="s">
-        <v>51</v>
+        <v>25</v>
       </c>
       <c r="C148" t="s">
         <v>4</v>
       </c>
       <c r="D148" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>299</v>
+        <v>229</v>
       </c>
       <c r="B149" t="s">
-        <v>51</v>
+        <v>25</v>
       </c>
       <c r="C149" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D149" t="s">
         <v>320</v>
@@ -3475,13 +3475,13 @@
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>185</v>
+        <v>229</v>
       </c>
       <c r="B150" t="s">
         <v>6</v>
       </c>
       <c r="C150" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D150" t="s">
         <v>320</v>
@@ -3489,13 +3489,13 @@
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>289</v>
+        <v>170</v>
       </c>
       <c r="B151" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="C151" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="D151" t="s">
         <v>320</v>
@@ -3503,55 +3503,55 @@
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>67</v>
+        <v>91</v>
       </c>
       <c r="B152" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="C152" t="s">
         <v>4</v>
       </c>
       <c r="D152" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="B153" t="s">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="C153" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D153" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>314</v>
+        <v>36</v>
       </c>
       <c r="B154" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="C154" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="D154" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>314</v>
+        <v>36</v>
       </c>
       <c r="B155" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="C155" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="D155" t="s">
         <v>320</v>
@@ -3559,13 +3559,13 @@
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>314</v>
+        <v>114</v>
       </c>
       <c r="B156" t="s">
         <v>18</v>
       </c>
       <c r="C156" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="D156" t="s">
         <v>320</v>
@@ -3573,13 +3573,13 @@
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>115</v>
+        <v>169</v>
       </c>
       <c r="B157" t="s">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="C157" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="D157" t="s">
         <v>320</v>
@@ -3587,13 +3587,13 @@
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>73</v>
+        <v>226</v>
       </c>
       <c r="B158" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="C158" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="D158" t="s">
         <v>320</v>
@@ -3601,27 +3601,27 @@
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>120</v>
+        <v>37</v>
       </c>
       <c r="B159" t="s">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="C159" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D159" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>157</v>
+        <v>259</v>
       </c>
       <c r="B160" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="C160" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D160" t="s">
         <v>320</v>
@@ -3629,13 +3629,13 @@
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>157</v>
+        <v>49</v>
       </c>
       <c r="B161" t="s">
         <v>15</v>
       </c>
       <c r="C161" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D161" t="s">
         <v>320</v>
@@ -3643,41 +3643,41 @@
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>149</v>
+        <v>121</v>
       </c>
       <c r="B162" t="s">
-        <v>9</v>
+        <v>51</v>
       </c>
       <c r="C162" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D162" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>183</v>
+        <v>165</v>
       </c>
       <c r="B163" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="C163" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="D163" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>76</v>
+        <v>108</v>
       </c>
       <c r="B164" t="s">
         <v>51</v>
       </c>
       <c r="C164" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="D164" t="s">
         <v>320</v>
@@ -3685,10 +3685,10 @@
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>62</v>
+        <v>283</v>
       </c>
       <c r="B165" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="C165" t="s">
         <v>19</v>
@@ -3699,38 +3699,38 @@
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>62</v>
+        <v>295</v>
       </c>
       <c r="B166" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="C166" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="D166" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>142</v>
+        <v>295</v>
       </c>
       <c r="B167" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="C167" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="D167" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>180</v>
+        <v>295</v>
       </c>
       <c r="B168" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="C168" t="s">
         <v>4</v>
@@ -3741,10 +3741,10 @@
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>180</v>
+        <v>246</v>
       </c>
       <c r="B169" t="s">
-        <v>25</v>
+        <v>178</v>
       </c>
       <c r="C169" t="s">
         <v>4</v>
@@ -3755,10 +3755,10 @@
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>180</v>
+        <v>224</v>
       </c>
       <c r="B170" t="s">
-        <v>25</v>
+        <v>178</v>
       </c>
       <c r="C170" t="s">
         <v>4</v>
@@ -3769,24 +3769,24 @@
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>132</v>
+        <v>88</v>
       </c>
       <c r="B171" t="s">
-        <v>33</v>
+        <v>178</v>
       </c>
       <c r="C171" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="D171" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>132</v>
+        <v>310</v>
       </c>
       <c r="B172" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="C172" t="s">
         <v>13</v>
@@ -3797,10 +3797,10 @@
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>131</v>
+        <v>310</v>
       </c>
       <c r="B173" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="C173" t="s">
         <v>13</v>
@@ -3811,13 +3811,13 @@
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>172</v>
+        <v>310</v>
       </c>
       <c r="B174" t="s">
-        <v>9</v>
+        <v>178</v>
       </c>
       <c r="C174" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D174" t="s">
         <v>320</v>
@@ -3825,13 +3825,13 @@
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>71</v>
+        <v>158</v>
       </c>
       <c r="B175" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C175" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D175" t="s">
         <v>320</v>
@@ -3839,38 +3839,38 @@
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>71</v>
+        <v>286</v>
       </c>
       <c r="B176" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C176" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="D176" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>71</v>
+        <v>263</v>
       </c>
       <c r="B177" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="C177" t="s">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="D177" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>301</v>
+        <v>192</v>
       </c>
       <c r="B178" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="C178" t="s">
         <v>7</v>
@@ -3881,27 +3881,27 @@
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="B179" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="C179" t="s">
         <v>4</v>
       </c>
       <c r="D179" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>69</v>
+        <v>267</v>
       </c>
       <c r="B180" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C180" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D180" t="s">
         <v>320</v>
@@ -3909,13 +3909,13 @@
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>293</v>
+        <v>50</v>
       </c>
       <c r="B181" t="s">
-        <v>18</v>
+        <v>51</v>
       </c>
       <c r="C181" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="D181" t="s">
         <v>320</v>
@@ -3923,13 +3923,13 @@
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>79</v>
+        <v>216</v>
       </c>
       <c r="B182" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="C182" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="D182" t="s">
         <v>320</v>
@@ -3937,13 +3937,13 @@
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>214</v>
+        <v>32</v>
       </c>
       <c r="B183" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C183" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D183" t="s">
         <v>320</v>
@@ -3951,13 +3951,13 @@
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>167</v>
+        <v>278</v>
       </c>
       <c r="B184" t="s">
         <v>15</v>
       </c>
       <c r="C184" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="D184" t="s">
         <v>320</v>
@@ -3965,10 +3965,10 @@
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>264</v>
+        <v>212</v>
       </c>
       <c r="B185" t="s">
-        <v>51</v>
+        <v>15</v>
       </c>
       <c r="C185" t="s">
         <v>4</v>
@@ -3979,27 +3979,27 @@
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>80</v>
+        <v>215</v>
       </c>
       <c r="B186" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C186" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D186" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>80</v>
+        <v>171</v>
       </c>
       <c r="B187" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="C187" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D187" t="s">
         <v>320</v>
@@ -4007,13 +4007,13 @@
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>241</v>
+        <v>171</v>
       </c>
       <c r="B188" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C188" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="D188" t="s">
         <v>320</v>
@@ -4021,13 +4021,13 @@
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>308</v>
+        <v>171</v>
       </c>
       <c r="B189" t="s">
-        <v>178</v>
+        <v>31</v>
       </c>
       <c r="C189" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="D189" t="s">
         <v>320</v>
@@ -4035,13 +4035,13 @@
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>308</v>
+        <v>197</v>
       </c>
       <c r="B190" t="s">
-        <v>178</v>
+        <v>3</v>
       </c>
       <c r="C190" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="D190" t="s">
         <v>320</v>
@@ -4049,13 +4049,13 @@
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>177</v>
+        <v>99</v>
       </c>
       <c r="B191" t="s">
-        <v>178</v>
+        <v>20</v>
       </c>
       <c r="C191" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="D191" t="s">
         <v>320</v>
@@ -4063,13 +4063,13 @@
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>168</v>
+        <v>242</v>
       </c>
       <c r="B192" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="C192" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="D192" t="s">
         <v>320</v>
@@ -4077,52 +4077,52 @@
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>309</v>
+        <v>220</v>
       </c>
       <c r="B193" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C193" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="D193" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>322</v>
+        <v>124</v>
       </c>
       <c r="B194" t="s">
         <v>9</v>
       </c>
       <c r="C194" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="D194" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>14</v>
+        <v>233</v>
       </c>
       <c r="B195" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="C195" t="s">
         <v>4</v>
       </c>
       <c r="D195" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>311</v>
+        <v>231</v>
       </c>
       <c r="B196" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C196" t="s">
         <v>4</v>
@@ -4133,27 +4133,27 @@
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>159</v>
+        <v>273</v>
       </c>
       <c r="B197" t="s">
-        <v>51</v>
+        <v>178</v>
       </c>
       <c r="C197" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D197" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>159</v>
+        <v>273</v>
       </c>
       <c r="B198" t="s">
-        <v>51</v>
+        <v>9</v>
       </c>
       <c r="C198" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D198" t="s">
         <v>320</v>
@@ -4161,13 +4161,13 @@
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>159</v>
+        <v>273</v>
       </c>
       <c r="B199" t="s">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="C199" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D199" t="s">
         <v>320</v>
@@ -4175,55 +4175,55 @@
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>265</v>
+        <v>11</v>
       </c>
       <c r="B200" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="C200" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D200" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>156</v>
+        <v>38</v>
       </c>
       <c r="B201" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="C201" t="s">
         <v>40</v>
       </c>
       <c r="D201" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>2</v>
+        <v>38</v>
       </c>
       <c r="B202" t="s">
-        <v>3</v>
+        <v>51</v>
       </c>
       <c r="C202" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D202" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>201</v>
+        <v>38</v>
       </c>
       <c r="B203" t="s">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="C203" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="D203" t="s">
         <v>320</v>
@@ -4231,13 +4231,13 @@
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>129</v>
+        <v>276</v>
       </c>
       <c r="B204" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C204" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D204" t="s">
         <v>320</v>
@@ -4245,13 +4245,13 @@
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>204</v>
+        <v>276</v>
       </c>
       <c r="B205" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="C205" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="D205" t="s">
         <v>320</v>
@@ -4259,13 +4259,13 @@
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>8</v>
+        <v>276</v>
       </c>
       <c r="B206" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C206" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="D206" t="s">
         <v>320</v>
@@ -4273,24 +4273,24 @@
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>304</v>
+        <v>174</v>
       </c>
       <c r="B207" t="s">
-        <v>178</v>
+        <v>3</v>
       </c>
       <c r="C207" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="D207" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>16</v>
+        <v>302</v>
       </c>
       <c r="B208" t="s">
-        <v>51</v>
+        <v>3</v>
       </c>
       <c r="C208" t="s">
         <v>19</v>
@@ -4301,10 +4301,10 @@
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>54</v>
+        <v>141</v>
       </c>
       <c r="B209" t="s">
-        <v>51</v>
+        <v>6</v>
       </c>
       <c r="C209" t="s">
         <v>4</v>
@@ -4315,13 +4315,13 @@
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>161</v>
+        <v>141</v>
       </c>
       <c r="B210" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C210" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D210" t="s">
         <v>320</v>
@@ -4329,13 +4329,13 @@
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>235</v>
+        <v>141</v>
       </c>
       <c r="B211" t="s">
-        <v>18</v>
+        <v>51</v>
       </c>
       <c r="C211" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="D211" t="s">
         <v>320</v>
@@ -4343,10 +4343,10 @@
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>150</v>
+        <v>305</v>
       </c>
       <c r="B212" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="C212" t="s">
         <v>4</v>
@@ -4357,27 +4357,27 @@
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>100</v>
+        <v>122</v>
       </c>
       <c r="B213" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="C213" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D213" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>100</v>
+        <v>24</v>
       </c>
       <c r="B214" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C214" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D214" t="s">
         <v>320</v>
@@ -4385,13 +4385,13 @@
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>81</v>
+        <v>247</v>
       </c>
       <c r="B215" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C215" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D215" t="s">
         <v>320</v>
@@ -4399,13 +4399,13 @@
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>250</v>
+        <v>175</v>
       </c>
       <c r="B216" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="C216" t="s">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="D216" t="s">
         <v>320</v>
@@ -4413,13 +4413,13 @@
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>250</v>
+        <v>225</v>
       </c>
       <c r="B217" t="s">
         <v>3</v>
       </c>
       <c r="C217" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D217" t="s">
         <v>320</v>
@@ -4427,55 +4427,55 @@
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>250</v>
+        <v>316</v>
       </c>
       <c r="B218" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="C218" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D218" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>221</v>
+        <v>41</v>
       </c>
       <c r="B219" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C219" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="D219" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>288</v>
+        <v>151</v>
       </c>
       <c r="B220" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C220" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D220" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>288</v>
+        <v>277</v>
       </c>
       <c r="B221" t="s">
         <v>15</v>
       </c>
       <c r="C221" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="D221" t="s">
         <v>320</v>
@@ -4483,13 +4483,13 @@
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>53</v>
+        <v>270</v>
       </c>
       <c r="B222" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C222" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D222" t="s">
         <v>320</v>
@@ -4497,10 +4497,10 @@
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>313</v>
+        <v>137</v>
       </c>
       <c r="B223" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C223" t="s">
         <v>4</v>
@@ -4511,27 +4511,27 @@
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>77</v>
+        <v>303</v>
       </c>
       <c r="B224" t="s">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="C224" t="s">
         <v>4</v>
       </c>
       <c r="D224" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>130</v>
+        <v>42</v>
       </c>
       <c r="B225" t="s">
-        <v>51</v>
+        <v>6</v>
       </c>
       <c r="C225" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D225" t="s">
         <v>320</v>
@@ -4539,13 +4539,13 @@
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>130</v>
+        <v>253</v>
       </c>
       <c r="B226" t="s">
         <v>33</v>
       </c>
       <c r="C226" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D226" t="s">
         <v>320</v>
@@ -4553,13 +4553,13 @@
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>193</v>
+        <v>104</v>
       </c>
       <c r="B227" t="s">
-        <v>18</v>
+        <v>51</v>
       </c>
       <c r="C227" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D227" t="s">
         <v>320</v>
@@ -4567,13 +4567,13 @@
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>315</v>
+        <v>86</v>
       </c>
       <c r="B228" t="s">
         <v>18</v>
       </c>
       <c r="C228" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D228" t="s">
         <v>320</v>
@@ -4581,13 +4581,13 @@
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>59</v>
+        <v>112</v>
       </c>
       <c r="B229" t="s">
         <v>18</v>
       </c>
       <c r="C229" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="D229" t="s">
         <v>320</v>
@@ -4595,21 +4595,21 @@
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>59</v>
+        <v>232</v>
       </c>
       <c r="B230" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C230" t="s">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="D230" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>279</v>
+        <v>232</v>
       </c>
       <c r="B231" t="s">
         <v>25</v>
@@ -4623,10 +4623,10 @@
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>139</v>
+        <v>232</v>
       </c>
       <c r="B232" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C232" t="s">
         <v>4</v>
@@ -4637,13 +4637,13 @@
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>234</v>
+        <v>48</v>
       </c>
       <c r="B233" t="s">
         <v>25</v>
       </c>
       <c r="C233" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="D233" t="s">
         <v>320</v>
@@ -4651,13 +4651,13 @@
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>282</v>
+        <v>110</v>
       </c>
       <c r="B234" t="s">
-        <v>51</v>
+        <v>25</v>
       </c>
       <c r="C234" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="D234" t="s">
         <v>320</v>
@@ -4665,41 +4665,41 @@
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>271</v>
+        <v>254</v>
       </c>
       <c r="B235" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="C235" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="D235" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>271</v>
+        <v>317</v>
       </c>
       <c r="B236" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="C236" t="s">
         <v>4</v>
       </c>
       <c r="D236" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>208</v>
+        <v>52</v>
       </c>
       <c r="B237" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="C237" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="D237" t="s">
         <v>320</v>
@@ -4707,27 +4707,27 @@
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>208</v>
+        <v>306</v>
       </c>
       <c r="B238" t="s">
-        <v>9</v>
+        <v>51</v>
       </c>
       <c r="C238" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="D238" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>229</v>
+        <v>97</v>
       </c>
       <c r="B239" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="C239" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D239" t="s">
         <v>320</v>
@@ -4735,10 +4735,10 @@
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>229</v>
+        <v>261</v>
       </c>
       <c r="B240" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="C240" t="s">
         <v>4</v>
@@ -4749,13 +4749,13 @@
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>170</v>
+        <v>228</v>
       </c>
       <c r="B241" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="C241" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D241" t="s">
         <v>320</v>
@@ -4763,7 +4763,7 @@
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>36</v>
+        <v>147</v>
       </c>
       <c r="B242" t="s">
         <v>33</v>
@@ -4772,15 +4772,15 @@
         <v>10</v>
       </c>
       <c r="D242" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>114</v>
+        <v>29</v>
       </c>
       <c r="B243" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="C243" t="s">
         <v>10</v>
@@ -4791,13 +4791,13 @@
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>169</v>
+        <v>98</v>
       </c>
       <c r="B244" t="s">
-        <v>39</v>
+        <v>6</v>
       </c>
       <c r="C244" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="D244" t="s">
         <v>320</v>
@@ -4805,10 +4805,10 @@
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="B245" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="C245" t="s">
         <v>40</v>
@@ -4819,13 +4819,13 @@
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>259</v>
+        <v>230</v>
       </c>
       <c r="B246" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="C246" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D246" t="s">
         <v>320</v>
@@ -4833,13 +4833,13 @@
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>49</v>
+        <v>230</v>
       </c>
       <c r="B247" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C247" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="D247" t="s">
         <v>320</v>
@@ -4847,13 +4847,13 @@
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="B248" t="s">
-        <v>51</v>
+        <v>25</v>
       </c>
       <c r="C248" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D248" t="s">
         <v>320</v>
@@ -4861,13 +4861,13 @@
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>283</v>
+        <v>17</v>
       </c>
       <c r="B249" t="s">
         <v>6</v>
       </c>
       <c r="C249" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="D249" t="s">
         <v>320</v>
@@ -4875,41 +4875,41 @@
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>295</v>
+        <v>272</v>
       </c>
       <c r="B250" t="s">
         <v>6</v>
       </c>
       <c r="C250" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="D250" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>246</v>
+        <v>266</v>
       </c>
       <c r="B251" t="s">
-        <v>178</v>
+        <v>18</v>
       </c>
       <c r="C251" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="D251" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>224</v>
+        <v>266</v>
       </c>
       <c r="B252" t="s">
-        <v>178</v>
+        <v>20</v>
       </c>
       <c r="C252" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="D252" t="s">
         <v>320</v>
@@ -4917,13 +4917,13 @@
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>310</v>
+        <v>266</v>
       </c>
       <c r="B253" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="C253" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D253" t="s">
         <v>320</v>
@@ -4931,41 +4931,41 @@
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>310</v>
+        <v>294</v>
       </c>
       <c r="B254" t="s">
         <v>18</v>
       </c>
       <c r="C254" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="D254" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>310</v>
+        <v>294</v>
       </c>
       <c r="B255" t="s">
-        <v>178</v>
+        <v>39</v>
       </c>
       <c r="C255" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D255" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>158</v>
+        <v>294</v>
       </c>
       <c r="B256" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C256" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="D256" t="s">
         <v>320</v>
@@ -4973,41 +4973,41 @@
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>192</v>
+        <v>209</v>
       </c>
       <c r="B257" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="C257" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D257" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>267</v>
+        <v>138</v>
       </c>
       <c r="B258" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="C258" t="s">
         <v>4</v>
       </c>
       <c r="D258" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>50</v>
+        <v>153</v>
       </c>
       <c r="B259" t="s">
         <v>51</v>
       </c>
       <c r="C259" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="D259" t="s">
         <v>320</v>
@@ -5015,13 +5015,13 @@
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>216</v>
+        <v>153</v>
       </c>
       <c r="B260" t="s">
-        <v>51</v>
+        <v>15</v>
       </c>
       <c r="C260" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D260" t="s">
         <v>320</v>
@@ -5029,13 +5029,13 @@
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>32</v>
+        <v>153</v>
       </c>
       <c r="B261" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="C261" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D261" t="s">
         <v>320</v>
@@ -5043,27 +5043,27 @@
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>278</v>
+        <v>166</v>
       </c>
       <c r="B262" t="s">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="C262" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D262" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>212</v>
+        <v>90</v>
       </c>
       <c r="B263" t="s">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="C263" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="D263" t="s">
         <v>320</v>
@@ -5071,13 +5071,13 @@
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>171</v>
+        <v>92</v>
       </c>
       <c r="B264" t="s">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="C264" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D264" t="s">
         <v>320</v>
@@ -5085,27 +5085,27 @@
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>171</v>
+        <v>109</v>
       </c>
       <c r="B265" t="s">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="C265" t="s">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="D265" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="B266" t="s">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="C266" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="D266" t="s">
         <v>320</v>
@@ -5113,69 +5113,69 @@
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="B267" t="s">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="C267" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="D267" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>99</v>
+        <v>133</v>
       </c>
       <c r="B268" t="s">
-        <v>20</v>
+        <v>178</v>
       </c>
       <c r="C268" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="D268" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>242</v>
+        <v>186</v>
       </c>
       <c r="B269" t="s">
-        <v>25</v>
+        <v>178</v>
       </c>
       <c r="C269" t="s">
         <v>4</v>
       </c>
       <c r="D269" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>231</v>
+        <v>284</v>
       </c>
       <c r="B270" t="s">
-        <v>6</v>
+        <v>178</v>
       </c>
       <c r="C270" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D270" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>273</v>
+        <v>284</v>
       </c>
       <c r="B271" t="s">
-        <v>9</v>
+        <v>178</v>
       </c>
       <c r="C271" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D271" t="s">
         <v>320</v>
@@ -5183,13 +5183,13 @@
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>273</v>
+        <v>284</v>
       </c>
       <c r="B272" t="s">
         <v>12</v>
       </c>
       <c r="C272" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D272" t="s">
         <v>320</v>
@@ -5197,27 +5197,27 @@
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="B273" t="s">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="C273" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="D273" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>276</v>
+        <v>113</v>
       </c>
       <c r="B274" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C274" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="D274" t="s">
         <v>320</v>
@@ -5225,10 +5225,10 @@
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
-        <v>276</v>
+        <v>189</v>
       </c>
       <c r="B275" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="C275" t="s">
         <v>4</v>
@@ -5239,13 +5239,13 @@
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
-        <v>276</v>
+        <v>173</v>
       </c>
       <c r="B276" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C276" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="D276" t="s">
         <v>320</v>
@@ -5253,27 +5253,27 @@
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
-        <v>302</v>
+        <v>101</v>
       </c>
       <c r="B277" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="C277" t="s">
         <v>19</v>
       </c>
       <c r="D277" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
-        <v>141</v>
+        <v>101</v>
       </c>
       <c r="B278" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="C278" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="D278" t="s">
         <v>320</v>
@@ -5281,13 +5281,13 @@
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
-        <v>141</v>
+        <v>101</v>
       </c>
       <c r="B279" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C279" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="D279" t="s">
         <v>320</v>
@@ -5295,13 +5295,13 @@
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
-        <v>141</v>
+        <v>240</v>
       </c>
       <c r="B280" t="s">
         <v>51</v>
       </c>
       <c r="C280" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="D280" t="s">
         <v>320</v>
@@ -5309,41 +5309,41 @@
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
-        <v>305</v>
+        <v>163</v>
       </c>
       <c r="B281" t="s">
-        <v>18</v>
+        <v>51</v>
       </c>
       <c r="C281" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D281" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
-        <v>24</v>
+        <v>184</v>
       </c>
       <c r="B282" t="s">
-        <v>3</v>
+        <v>51</v>
       </c>
       <c r="C282" t="s">
         <v>4</v>
       </c>
       <c r="D282" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
-        <v>247</v>
+        <v>140</v>
       </c>
       <c r="B283" t="s">
         <v>15</v>
       </c>
       <c r="C283" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D283" t="s">
         <v>320</v>
@@ -5351,13 +5351,13 @@
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
-        <v>175</v>
+        <v>140</v>
       </c>
       <c r="B284" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C284" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D284" t="s">
         <v>320</v>
@@ -5365,13 +5365,13 @@
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
-        <v>225</v>
+        <v>140</v>
       </c>
       <c r="B285" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C285" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="D285" t="s">
         <v>320</v>
@@ -5379,27 +5379,27 @@
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
-        <v>277</v>
+        <v>236</v>
       </c>
       <c r="B286" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="C286" t="s">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="D286" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
-        <v>270</v>
+        <v>22</v>
       </c>
       <c r="B287" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="C287" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D287" t="s">
         <v>320</v>
@@ -5407,41 +5407,41 @@
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
-        <v>137</v>
+        <v>84</v>
       </c>
       <c r="B288" t="s">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="C288" t="s">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="D288" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
-        <v>42</v>
+        <v>84</v>
       </c>
       <c r="B289" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="C289" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D289" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
-        <v>253</v>
+        <v>84</v>
       </c>
       <c r="B290" t="s">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="C290" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D290" t="s">
         <v>320</v>
@@ -5449,10 +5449,10 @@
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
-        <v>104</v>
+        <v>144</v>
       </c>
       <c r="B291" t="s">
-        <v>51</v>
+        <v>25</v>
       </c>
       <c r="C291" t="s">
         <v>7</v>
@@ -5463,13 +5463,13 @@
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
-        <v>86</v>
+        <v>155</v>
       </c>
       <c r="B292" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C292" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D292" t="s">
         <v>320</v>
@@ -5477,10 +5477,10 @@
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
-        <v>112</v>
+        <v>312</v>
       </c>
       <c r="B293" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C293" t="s">
         <v>4</v>
@@ -5491,13 +5491,13 @@
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
-        <v>232</v>
+        <v>312</v>
       </c>
       <c r="B294" t="s">
         <v>25</v>
       </c>
       <c r="C294" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="D294" t="s">
         <v>320</v>
@@ -5505,13 +5505,13 @@
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
-        <v>232</v>
+        <v>312</v>
       </c>
       <c r="B295" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="C295" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="D295" t="s">
         <v>320</v>
@@ -5519,13 +5519,13 @@
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
-        <v>48</v>
+        <v>262</v>
       </c>
       <c r="B296" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="C296" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="D296" t="s">
         <v>320</v>
@@ -5533,10 +5533,10 @@
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
-        <v>110</v>
+        <v>262</v>
       </c>
       <c r="B297" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C297" t="s">
         <v>19</v>
@@ -5547,13 +5547,13 @@
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
-        <v>52</v>
+        <v>262</v>
       </c>
       <c r="B298" t="s">
-        <v>25</v>
+        <v>178</v>
       </c>
       <c r="C298" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D298" t="s">
         <v>320</v>
@@ -5561,10 +5561,10 @@
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
-        <v>97</v>
+        <v>238</v>
       </c>
       <c r="B299" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C299" t="s">
         <v>4</v>
@@ -5575,10 +5575,10 @@
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
-        <v>261</v>
+        <v>194</v>
       </c>
       <c r="B300" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C300" t="s">
         <v>4</v>
@@ -5589,27 +5589,27 @@
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
-        <v>228</v>
+        <v>94</v>
       </c>
       <c r="B301" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C301" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D301" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
-        <v>29</v>
+        <v>148</v>
       </c>
       <c r="B302" t="s">
-        <v>39</v>
+        <v>6</v>
       </c>
       <c r="C302" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D302" t="s">
         <v>320</v>
@@ -5617,13 +5617,13 @@
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
-        <v>98</v>
+        <v>148</v>
       </c>
       <c r="B303" t="s">
-        <v>6</v>
+        <v>51</v>
       </c>
       <c r="C303" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D303" t="s">
         <v>320</v>
@@ -5631,13 +5631,13 @@
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
-        <v>230</v>
+        <v>148</v>
       </c>
       <c r="B304" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="C304" t="s">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="D304" t="s">
         <v>320</v>
@@ -5645,27 +5645,27 @@
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
-        <v>230</v>
+        <v>268</v>
       </c>
       <c r="B305" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C305" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D305" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
-        <v>230</v>
+        <v>248</v>
       </c>
       <c r="B306" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C306" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D306" t="s">
         <v>320</v>
@@ -5673,10 +5673,10 @@
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
-        <v>95</v>
+        <v>202</v>
       </c>
       <c r="B307" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="C307" t="s">
         <v>13</v>
@@ -5687,13 +5687,13 @@
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
-        <v>17</v>
+        <v>111</v>
       </c>
       <c r="B308" t="s">
-        <v>6</v>
+        <v>51</v>
       </c>
       <c r="C308" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="D308" t="s">
         <v>320</v>
@@ -5701,27 +5701,27 @@
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
-        <v>266</v>
+        <v>297</v>
       </c>
       <c r="B309" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="C309" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="D309" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
-        <v>266</v>
+        <v>126</v>
       </c>
       <c r="B310" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="C310" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="D310" t="s">
         <v>320</v>
@@ -5729,10 +5729,10 @@
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
-        <v>294</v>
+        <v>78</v>
       </c>
       <c r="B311" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="C311" t="s">
         <v>4</v>
@@ -5743,27 +5743,27 @@
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
-        <v>153</v>
+        <v>199</v>
       </c>
       <c r="B312" t="s">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="C312" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="D312" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
-        <v>153</v>
+        <v>318</v>
       </c>
       <c r="B313" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="C313" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D313" t="s">
         <v>320</v>
@@ -5771,41 +5771,41 @@
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
-        <v>153</v>
+        <v>43</v>
       </c>
       <c r="B314" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="C314" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D314" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
-        <v>90</v>
+        <v>43</v>
       </c>
       <c r="B315" t="s">
-        <v>51</v>
+        <v>3</v>
       </c>
       <c r="C315" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D315" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
-        <v>92</v>
+        <v>43</v>
       </c>
       <c r="B316" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C316" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D316" t="s">
         <v>320</v>
@@ -5813,13 +5813,13 @@
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
-        <v>162</v>
+        <v>89</v>
       </c>
       <c r="B317" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C317" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D317" t="s">
         <v>320</v>
@@ -5827,38 +5827,38 @@
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
-        <v>284</v>
+        <v>127</v>
       </c>
       <c r="B318" t="s">
-        <v>178</v>
+        <v>15</v>
       </c>
       <c r="C318" t="s">
         <v>7</v>
       </c>
       <c r="D318" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
-        <v>284</v>
+        <v>127</v>
       </c>
       <c r="B319" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C319" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="D319" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
-        <v>113</v>
+        <v>127</v>
       </c>
       <c r="B320" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C320" t="s">
         <v>4</v>
@@ -5869,13 +5869,13 @@
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
-        <v>189</v>
+        <v>300</v>
       </c>
       <c r="B321" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C321" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="D321" t="s">
         <v>320</v>
@@ -5883,13 +5883,13 @@
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
-        <v>173</v>
+        <v>223</v>
       </c>
       <c r="B322" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="C322" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="D322" t="s">
         <v>320</v>
@@ -5897,10 +5897,10 @@
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
-        <v>101</v>
+        <v>206</v>
       </c>
       <c r="B323" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="C323" t="s">
         <v>19</v>
@@ -5911,13 +5911,13 @@
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
-        <v>101</v>
+        <v>245</v>
       </c>
       <c r="B324" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C324" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="D324" t="s">
         <v>320</v>
@@ -5925,27 +5925,27 @@
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
-        <v>240</v>
+        <v>218</v>
       </c>
       <c r="B325" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="C325" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D325" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
-        <v>140</v>
+        <v>198</v>
       </c>
       <c r="B326" t="s">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="C326" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D326" t="s">
         <v>320</v>
@@ -5953,10 +5953,10 @@
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
-        <v>140</v>
+        <v>27</v>
       </c>
       <c r="B327" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C327" t="s">
         <v>4</v>
@@ -5967,10 +5967,10 @@
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
-        <v>140</v>
+        <v>275</v>
       </c>
       <c r="B328" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C328" t="s">
         <v>4</v>
@@ -5981,27 +5981,27 @@
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
-        <v>22</v>
+        <v>145</v>
       </c>
       <c r="B329" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="C329" t="s">
         <v>10</v>
       </c>
       <c r="D329" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
-        <v>84</v>
+        <v>145</v>
       </c>
       <c r="B330" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="C330" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="D330" t="s">
         <v>320</v>
@@ -6009,13 +6009,13 @@
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B331" t="s">
         <v>25</v>
       </c>
       <c r="C331" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D331" t="s">
         <v>320</v>
@@ -6023,13 +6023,13 @@
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
-        <v>155</v>
+        <v>251</v>
       </c>
       <c r="B332" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C332" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D332" t="s">
         <v>320</v>
@@ -6037,13 +6037,13 @@
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
-        <v>312</v>
+        <v>119</v>
       </c>
       <c r="B333" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C333" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="D333" t="s">
         <v>320</v>
@@ -6051,13 +6051,13 @@
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
-        <v>312</v>
+        <v>44</v>
       </c>
       <c r="B334" t="s">
         <v>25</v>
       </c>
       <c r="C334" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="D334" t="s">
         <v>320</v>
@@ -6065,13 +6065,13 @@
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
-        <v>312</v>
+        <v>107</v>
       </c>
       <c r="B335" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="C335" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="D335" t="s">
         <v>320</v>
@@ -6079,27 +6079,27 @@
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
-        <v>262</v>
+        <v>280</v>
       </c>
       <c r="B336" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="C336" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="D336" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
-        <v>262</v>
+        <v>280</v>
       </c>
       <c r="B337" t="s">
-        <v>9</v>
+        <v>51</v>
       </c>
       <c r="C337" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="D337" t="s">
         <v>320</v>
@@ -6107,10 +6107,10 @@
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
-        <v>262</v>
+        <v>280</v>
       </c>
       <c r="B338" t="s">
-        <v>178</v>
+        <v>33</v>
       </c>
       <c r="C338" t="s">
         <v>19</v>
@@ -6121,13 +6121,13 @@
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
-        <v>238</v>
+        <v>182</v>
       </c>
       <c r="B339" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C339" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="D339" t="s">
         <v>320</v>
@@ -6135,13 +6135,13 @@
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
-        <v>194</v>
+        <v>103</v>
       </c>
       <c r="B340" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="C340" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="D340" t="s">
         <v>320</v>
@@ -6149,13 +6149,13 @@
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
-        <v>148</v>
+        <v>65</v>
       </c>
       <c r="B341" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="C341" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="D341" t="s">
         <v>320</v>
@@ -6163,10 +6163,10 @@
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
-        <v>148</v>
+        <v>45</v>
       </c>
       <c r="B342" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="C342" t="s">
         <v>4</v>
@@ -6177,10 +6177,10 @@
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
-        <v>148</v>
+        <v>179</v>
       </c>
       <c r="B343" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C343" t="s">
         <v>4</v>
@@ -6191,41 +6191,41 @@
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
-        <v>248</v>
+        <v>285</v>
       </c>
       <c r="B344" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C344" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="D344" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
-        <v>202</v>
+        <v>285</v>
       </c>
       <c r="B345" t="s">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="C345" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="D345" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
-        <v>111</v>
+        <v>285</v>
       </c>
       <c r="B346" t="s">
-        <v>51</v>
+        <v>25</v>
       </c>
       <c r="C346" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="D346" t="s">
         <v>320</v>
@@ -6233,13 +6233,13 @@
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
-        <v>126</v>
+        <v>191</v>
       </c>
       <c r="B347" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C347" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D347" t="s">
         <v>320</v>
@@ -6247,41 +6247,41 @@
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
-        <v>78</v>
+        <v>160</v>
       </c>
       <c r="B348" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="C348" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D348" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
-        <v>318</v>
+        <v>274</v>
       </c>
       <c r="B349" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C349" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="D349" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
-        <v>43</v>
+        <v>291</v>
       </c>
       <c r="B350" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="C350" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D350" t="s">
         <v>320</v>
@@ -6289,13 +6289,13 @@
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
-        <v>89</v>
+        <v>200</v>
       </c>
       <c r="B351" t="s">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="C351" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="D351" t="s">
         <v>320</v>
@@ -6303,55 +6303,55 @@
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
-        <v>127</v>
+        <v>307</v>
       </c>
       <c r="B352" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="C352" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="D352" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
-        <v>300</v>
+        <v>219</v>
       </c>
       <c r="B353" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C353" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="D353" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
-        <v>223</v>
+        <v>252</v>
       </c>
       <c r="B354" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="C354" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="D354" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
-        <v>206</v>
+        <v>58</v>
       </c>
       <c r="B355" t="s">
         <v>39</v>
       </c>
       <c r="C355" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="D355" t="s">
         <v>320</v>
@@ -6359,55 +6359,55 @@
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
-        <v>245</v>
+        <v>292</v>
       </c>
       <c r="B356" t="s">
-        <v>6</v>
+        <v>39</v>
       </c>
       <c r="C356" t="s">
         <v>4</v>
       </c>
       <c r="D356" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
-        <v>198</v>
+        <v>61</v>
       </c>
       <c r="B357" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="C357" t="s">
         <v>4</v>
       </c>
       <c r="D357" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
-        <v>27</v>
+        <v>195</v>
       </c>
       <c r="B358" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="C358" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D358" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
-        <v>275</v>
+        <v>260</v>
       </c>
       <c r="B359" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C359" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D359" t="s">
         <v>320</v>
@@ -6415,13 +6415,13 @@
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
-        <v>145</v>
+        <v>260</v>
       </c>
       <c r="B360" t="s">
-        <v>18</v>
+        <v>51</v>
       </c>
       <c r="C360" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D360" t="s">
         <v>320</v>
@@ -6429,13 +6429,13 @@
     </row>
     <row r="361" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
-        <v>145</v>
+        <v>260</v>
       </c>
       <c r="B361" t="s">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="C361" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D361" t="s">
         <v>320</v>
@@ -6443,13 +6443,13 @@
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
-        <v>251</v>
+        <v>136</v>
       </c>
       <c r="B362" t="s">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="C362" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D362" t="s">
         <v>320</v>
@@ -6457,13 +6457,13 @@
     </row>
     <row r="363" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
-        <v>119</v>
+        <v>46</v>
       </c>
       <c r="B363" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="C363" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="D363" t="s">
         <v>320</v>
@@ -6471,13 +6471,13 @@
     </row>
     <row r="364" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="B364" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="C364" t="s">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="D364" t="s">
         <v>320</v>
@@ -6485,108 +6485,108 @@
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
-        <v>107</v>
+        <v>258</v>
       </c>
       <c r="B365" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="C365" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="D365" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="366" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
-        <v>280</v>
+        <v>296</v>
       </c>
       <c r="B366" t="s">
-        <v>51</v>
+        <v>178</v>
       </c>
       <c r="C366" t="s">
         <v>4</v>
       </c>
       <c r="D366" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="367" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
-        <v>280</v>
+        <v>296</v>
       </c>
       <c r="B367" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C367" t="s">
         <v>19</v>
       </c>
       <c r="D367" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
-        <v>182</v>
+        <v>296</v>
       </c>
       <c r="B368" t="s">
-        <v>33</v>
+        <v>178</v>
       </c>
       <c r="C368" t="s">
         <v>19</v>
       </c>
       <c r="D368" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="369" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
-        <v>103</v>
+        <v>227</v>
       </c>
       <c r="B369" t="s">
-        <v>33</v>
+        <v>178</v>
       </c>
       <c r="C369" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="D369" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="370" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
-        <v>65</v>
+        <v>287</v>
       </c>
       <c r="B370" t="s">
-        <v>33</v>
+        <v>178</v>
       </c>
       <c r="C370" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="D370" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="371" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="B371" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="C371" t="s">
         <v>4</v>
       </c>
       <c r="D371" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="372" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
-        <v>179</v>
+        <v>237</v>
       </c>
       <c r="B372" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="C372" t="s">
         <v>4</v>
@@ -6597,27 +6597,27 @@
     </row>
     <row r="373" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
-        <v>285</v>
+        <v>93</v>
       </c>
       <c r="B373" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C373" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="D373" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="374" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
-        <v>191</v>
+        <v>164</v>
       </c>
       <c r="B374" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C374" t="s">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="D374" t="s">
         <v>320</v>
@@ -6625,13 +6625,13 @@
     </row>
     <row r="375" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
-        <v>291</v>
+        <v>190</v>
       </c>
       <c r="B375" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C375" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D375" t="s">
         <v>320</v>
@@ -6639,13 +6639,13 @@
     </row>
     <row r="376" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
-        <v>200</v>
+        <v>128</v>
       </c>
       <c r="B376" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C376" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="D376" t="s">
         <v>320</v>
@@ -6653,10 +6653,10 @@
     </row>
     <row r="377" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
-        <v>58</v>
+        <v>298</v>
       </c>
       <c r="B377" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="C377" t="s">
         <v>4</v>
@@ -6667,27 +6667,27 @@
     </row>
     <row r="378" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
-        <v>260</v>
+        <v>211</v>
       </c>
       <c r="B378" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C378" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D378" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="379" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
-        <v>260</v>
+        <v>117</v>
       </c>
       <c r="B379" t="s">
         <v>51</v>
       </c>
       <c r="C379" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D379" t="s">
         <v>320</v>
@@ -6695,13 +6695,13 @@
     </row>
     <row r="380" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
-        <v>260</v>
+        <v>63</v>
       </c>
       <c r="B380" t="s">
         <v>51</v>
       </c>
       <c r="C380" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="D380" t="s">
         <v>320</v>
@@ -6709,24 +6709,24 @@
     </row>
     <row r="381" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
-        <v>136</v>
+        <v>249</v>
       </c>
       <c r="B381" t="s">
         <v>51</v>
       </c>
       <c r="C381" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="D381" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="382" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
-        <v>46</v>
+        <v>85</v>
       </c>
       <c r="B382" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C382" t="s">
         <v>4</v>
@@ -6737,27 +6737,27 @@
     </row>
     <row r="383" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
-        <v>68</v>
+        <v>188</v>
       </c>
       <c r="B383" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C383" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D383" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="384" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
-        <v>237</v>
+        <v>188</v>
       </c>
       <c r="B384" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="C384" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D384" t="s">
         <v>320</v>
@@ -6765,13 +6765,13 @@
     </row>
     <row r="385" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
-        <v>164</v>
+        <v>188</v>
       </c>
       <c r="B385" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C385" t="s">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="D385" t="s">
         <v>320</v>
@@ -6779,27 +6779,27 @@
     </row>
     <row r="386" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
-        <v>190</v>
+        <v>135</v>
       </c>
       <c r="B386" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="C386" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="D386" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="387" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
-        <v>128</v>
+        <v>255</v>
       </c>
       <c r="B387" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="C387" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="D387" t="s">
         <v>320</v>
@@ -6807,41 +6807,41 @@
     </row>
     <row r="388" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
-        <v>298</v>
+        <v>56</v>
       </c>
       <c r="B388" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="C388" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="D388" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="389" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
-        <v>117</v>
+        <v>57</v>
       </c>
       <c r="B389" t="s">
-        <v>51</v>
+        <v>20</v>
       </c>
       <c r="C389" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D389" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="390" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
-        <v>63</v>
+        <v>290</v>
       </c>
       <c r="B390" t="s">
-        <v>51</v>
+        <v>25</v>
       </c>
       <c r="C390" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D390" t="s">
         <v>320</v>
@@ -6849,27 +6849,27 @@
     </row>
     <row r="391" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
-        <v>85</v>
+        <v>176</v>
       </c>
       <c r="B391" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C391" t="s">
         <v>4</v>
       </c>
       <c r="D391" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="392" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="B392" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="C392" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D392" t="s">
         <v>320</v>
@@ -6877,10 +6877,10 @@
     </row>
     <row r="393" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="B393" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="C393" t="s">
         <v>4</v>
@@ -6891,13 +6891,13 @@
     </row>
     <row r="394" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
-        <v>255</v>
+        <v>123</v>
       </c>
       <c r="B394" t="s">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="C394" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D394" t="s">
         <v>320</v>
@@ -6905,13 +6905,13 @@
     </row>
     <row r="395" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
-        <v>290</v>
+        <v>82</v>
       </c>
       <c r="B395" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C395" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="D395" t="s">
         <v>320</v>
@@ -6919,41 +6919,41 @@
     </row>
     <row r="396" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
-        <v>176</v>
+        <v>213</v>
       </c>
       <c r="B396" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C396" t="s">
         <v>4</v>
       </c>
       <c r="D396" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="397" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
-        <v>176</v>
+        <v>213</v>
       </c>
       <c r="B397" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C397" t="s">
         <v>4</v>
       </c>
       <c r="D397" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="398" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
-        <v>123</v>
+        <v>213</v>
       </c>
       <c r="B398" t="s">
-        <v>6</v>
+        <v>178</v>
       </c>
       <c r="C398" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D398" t="s">
         <v>320</v>
@@ -6961,27 +6961,27 @@
     </row>
     <row r="399" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
-        <v>82</v>
+        <v>26</v>
       </c>
       <c r="B399" t="s">
         <v>9</v>
       </c>
       <c r="C399" t="s">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="D399" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="400" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
-        <v>213</v>
+        <v>26</v>
       </c>
       <c r="B400" t="s">
-        <v>178</v>
+        <v>9</v>
       </c>
       <c r="C400" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D400" t="s">
         <v>320</v>
@@ -6995,7 +6995,7 @@
         <v>9</v>
       </c>
       <c r="C401" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D401" t="s">
         <v>320</v>
@@ -7003,13 +7003,13 @@
     </row>
     <row r="402" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
-        <v>26</v>
+        <v>207</v>
       </c>
       <c r="B402" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C402" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="D402" t="s">
         <v>320</v>
@@ -7017,13 +7017,13 @@
     </row>
     <row r="403" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
-        <v>207</v>
+        <v>118</v>
       </c>
       <c r="B403" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="C403" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="D403" t="s">
         <v>320</v>
@@ -7031,10 +7031,10 @@
     </row>
     <row r="404" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="B404" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="C404" t="s">
         <v>4</v>
@@ -7045,16 +7045,16 @@
     </row>
     <row r="405" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
-        <v>105</v>
+        <v>196</v>
       </c>
       <c r="B405" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C405" t="s">
         <v>4</v>
       </c>
       <c r="D405" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="406" spans="1:4" x14ac:dyDescent="0.25">
@@ -7065,10 +7065,10 @@
         <v>25</v>
       </c>
       <c r="C406" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="D406" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="407" spans="1:4" x14ac:dyDescent="0.25">
@@ -7079,7 +7079,7 @@
         <v>25</v>
       </c>
       <c r="C407" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="D407" t="s">
         <v>320</v>
@@ -7087,15 +7087,29 @@
     </row>
     <row r="408" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
+        <v>187</v>
+      </c>
+      <c r="B408" t="s">
+        <v>25</v>
+      </c>
+      <c r="C408" t="s">
+        <v>19</v>
+      </c>
+      <c r="D408" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="409" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A409" t="s">
         <v>60</v>
       </c>
-      <c r="B408" t="s">
+      <c r="B409" t="s">
         <v>9</v>
       </c>
-      <c r="C408" t="s">
-        <v>19</v>
-      </c>
-      <c r="D408" t="s">
+      <c r="C409" t="s">
+        <v>19</v>
+      </c>
+      <c r="D409" t="s">
         <v>320</v>
       </c>
     </row>
